--- a/BackTest/2019-10-27 BackTest WTC.xlsx
+++ b/BackTest/2019-10-27 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>1737.1523</v>
       </c>
       <c r="G2" t="n">
-        <v>-16403.8781</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>1737.9571</v>
       </c>
       <c r="G3" t="n">
-        <v>-14665.921</v>
+        <v>734</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +529,7 @@
         <v>2111.665</v>
       </c>
       <c r="G4" t="n">
-        <v>-16777.586</v>
+        <v>732.3333333333334</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,7 +573,7 @@
         <v>2000.5213</v>
       </c>
       <c r="G5" t="n">
-        <v>-14777.0647</v>
+        <v>734.3333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -587,6 +595,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,7 +617,7 @@
         <v>203.013</v>
       </c>
       <c r="G6" t="n">
-        <v>-14980.0777</v>
+        <v>732</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -630,6 +639,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -651,7 +661,7 @@
         <v>1.6016</v>
       </c>
       <c r="G7" t="n">
-        <v>-14981.6793</v>
+        <v>732</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -673,6 +683,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>-14977.6793</v>
+        <v>730</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -716,6 +727,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -737,7 +749,7 @@
         <v>113.8479</v>
       </c>
       <c r="G9" t="n">
-        <v>-14977.6793</v>
+        <v>730.3333333333334</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -759,6 +771,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,7 +793,7 @@
         <v>8680.1801</v>
       </c>
       <c r="G10" t="n">
-        <v>-6297.4992</v>
+        <v>733</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -802,6 +815,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -823,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-6298.4992</v>
+        <v>734</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -843,6 +857,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -864,7 +879,7 @@
         <v>114.23</v>
       </c>
       <c r="G12" t="n">
-        <v>-6412.7292</v>
+        <v>732.6666666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -884,6 +899,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -905,7 +921,7 @@
         <v>85.77</v>
       </c>
       <c r="G13" t="n">
-        <v>-6412.7292</v>
+        <v>729.3333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -925,6 +941,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -946,7 +963,7 @@
         <v>815.1952</v>
       </c>
       <c r="G14" t="n">
-        <v>-7227.9244</v>
+        <v>726.6666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -966,6 +983,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -987,7 +1005,7 @@
         <v>2626.3294</v>
       </c>
       <c r="G15" t="n">
-        <v>-7227.9244</v>
+        <v>726.3333333333334</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1009,6 +1027,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1030,7 +1049,7 @@
         <v>996.1946</v>
       </c>
       <c r="G16" t="n">
-        <v>-7227.9244</v>
+        <v>726</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1052,6 +1071,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1073,7 +1093,7 @@
         <v>517.3656</v>
       </c>
       <c r="G17" t="n">
-        <v>-7745.29</v>
+        <v>725.6666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1093,6 +1113,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1114,7 +1135,7 @@
         <v>3799.3922</v>
       </c>
       <c r="G18" t="n">
-        <v>-7745.29</v>
+        <v>725.3333333333334</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1136,6 +1157,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1157,7 +1179,7 @@
         <v>2339.0479</v>
       </c>
       <c r="G19" t="n">
-        <v>-10084.3379</v>
+        <v>724.6666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1179,6 +1201,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,7 +1223,7 @@
         <v>93.6724</v>
       </c>
       <c r="G20" t="n">
-        <v>-9990.665500000001</v>
+        <v>726.3333333333334</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1222,6 +1245,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1243,7 +1267,7 @@
         <v>523.5821999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-10514.2477</v>
+        <v>726.6666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1263,6 +1287,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1284,7 +1309,7 @@
         <v>344.0699</v>
       </c>
       <c r="G22" t="n">
-        <v>-10170.1778</v>
+        <v>728.3333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1304,6 +1329,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1325,7 +1351,7 @@
         <v>1651.2527</v>
       </c>
       <c r="G23" t="n">
-        <v>-8518.9251</v>
+        <v>730</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1345,6 +1371,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1366,7 +1393,7 @@
         <v>5987.6534</v>
       </c>
       <c r="G24" t="n">
-        <v>-2531.2717</v>
+        <v>734</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1386,6 +1413,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1407,7 +1435,7 @@
         <v>1014.1434</v>
       </c>
       <c r="G25" t="n">
-        <v>-3545.4151</v>
+        <v>734.3333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1427,6 +1455,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1448,7 +1477,7 @@
         <v>0.0001</v>
       </c>
       <c r="G26" t="n">
-        <v>-3545.4151</v>
+        <v>732.6666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1468,6 +1497,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1489,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>-3547.4151</v>
+        <v>729.6666666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1509,6 +1539,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1530,7 +1561,7 @@
         <v>22.8072</v>
       </c>
       <c r="G28" t="n">
-        <v>-3547.4151</v>
+        <v>729.3333333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1550,6 +1581,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1571,7 +1603,7 @@
         <v>374.4279</v>
       </c>
       <c r="G29" t="n">
-        <v>-3547.4151</v>
+        <v>729</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1591,6 +1623,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1612,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-3537.4151</v>
+        <v>731.3333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1632,6 +1665,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1653,7 +1687,7 @@
         <v>47.981</v>
       </c>
       <c r="G31" t="n">
-        <v>-3585.3961</v>
+        <v>731.3333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1673,6 +1707,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1694,7 +1729,7 @@
         <v>47.9809</v>
       </c>
       <c r="G32" t="n">
-        <v>-3537.4152</v>
+        <v>731.6666666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1714,6 +1749,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1735,7 +1771,7 @@
         <v>773.1677</v>
       </c>
       <c r="G33" t="n">
-        <v>-4310.5829</v>
+        <v>728.3333333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1755,6 +1791,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1776,7 +1813,7 @@
         <v>42.5563</v>
       </c>
       <c r="G34" t="n">
-        <v>-4268.0266</v>
+        <v>727.6666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1798,6 +1835,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1819,7 +1857,7 @@
         <v>3.1549</v>
       </c>
       <c r="G35" t="n">
-        <v>-4264.8717</v>
+        <v>727.3333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1841,6 +1879,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1862,7 +1901,7 @@
         <v>920.0078</v>
       </c>
       <c r="G36" t="n">
-        <v>-5184.8795</v>
+        <v>727.3333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1882,6 +1921,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1903,7 +1943,7 @@
         <v>2018.6405</v>
       </c>
       <c r="G37" t="n">
-        <v>-3166.239</v>
+        <v>729.6666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1923,6 +1963,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1944,7 +1985,7 @@
         <v>66.21120000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-3232.4502</v>
+        <v>730.6666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1964,6 +2005,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1985,7 +2027,7 @@
         <v>78.7664</v>
       </c>
       <c r="G39" t="n">
-        <v>-3153.6838</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2005,6 +2047,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2026,7 +2069,7 @@
         <v>280.6</v>
       </c>
       <c r="G40" t="n">
-        <v>-2873.0838</v>
+        <v>734</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2046,6 +2089,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2067,7 +2111,7 @@
         <v>485.8</v>
       </c>
       <c r="G41" t="n">
-        <v>-3358.883800000001</v>
+        <v>734.3333333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2087,6 +2131,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2108,7 +2153,7 @@
         <v>486.1001</v>
       </c>
       <c r="G42" t="n">
-        <v>-2872.7837</v>
+        <v>735.3333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2128,6 +2173,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2149,7 +2195,7 @@
         <v>287.6708</v>
       </c>
       <c r="G43" t="n">
-        <v>-2872.7837</v>
+        <v>735.6666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2169,6 +2215,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2190,7 +2237,7 @@
         <v>1288.3833</v>
       </c>
       <c r="G44" t="n">
-        <v>-1584.4004</v>
+        <v>738.3333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2210,6 +2257,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2231,7 +2279,7 @@
         <v>1023.7431</v>
       </c>
       <c r="G45" t="n">
-        <v>-2608.143500000001</v>
+        <v>738.6666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2251,6 +2299,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2272,7 +2321,7 @@
         <v>22.252</v>
       </c>
       <c r="G46" t="n">
-        <v>-2630.395500000001</v>
+        <v>738.3333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2292,6 +2341,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2313,7 +2363,7 @@
         <v>1518.5845</v>
       </c>
       <c r="G47" t="n">
-        <v>-4148.98</v>
+        <v>736.3333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2333,6 +2383,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2354,7 +2405,7 @@
         <v>3655.8966</v>
       </c>
       <c r="G48" t="n">
-        <v>-7804.876600000001</v>
+        <v>735</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2374,6 +2425,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2395,7 +2447,7 @@
         <v>285.2199</v>
       </c>
       <c r="G49" t="n">
-        <v>-7519.6567</v>
+        <v>734.6666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2415,6 +2467,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2436,7 +2489,7 @@
         <v>55.77</v>
       </c>
       <c r="G50" t="n">
-        <v>-7463.8867</v>
+        <v>735</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2456,6 +2509,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2477,7 +2531,7 @@
         <v>2335</v>
       </c>
       <c r="G51" t="n">
-        <v>-5128.8867</v>
+        <v>736.6666666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2497,6 +2551,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2518,7 +2573,7 @@
         <v>810</v>
       </c>
       <c r="G52" t="n">
-        <v>-4318.8867</v>
+        <v>741</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2538,6 +2593,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2559,7 +2615,7 @@
         <v>47.3116</v>
       </c>
       <c r="G53" t="n">
-        <v>-4366.1983</v>
+        <v>743</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2579,6 +2635,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2600,7 +2657,7 @@
         <v>23.8612</v>
       </c>
       <c r="G54" t="n">
-        <v>-4342.3371</v>
+        <v>744.6666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2620,6 +2677,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2641,7 +2699,7 @@
         <v>46.1272</v>
       </c>
       <c r="G55" t="n">
-        <v>-4388.4643</v>
+        <v>742.6666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2661,6 +2719,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2682,7 +2741,7 @@
         <v>516.5984</v>
       </c>
       <c r="G56" t="n">
-        <v>-3871.8659</v>
+        <v>744</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2702,6 +2761,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2723,7 +2783,7 @@
         <v>1095.842</v>
       </c>
       <c r="G57" t="n">
-        <v>-3871.8659</v>
+        <v>744.6666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2743,6 +2803,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2764,7 +2825,7 @@
         <v>800</v>
       </c>
       <c r="G58" t="n">
-        <v>-3071.8659</v>
+        <v>746.3333333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2784,6 +2845,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2805,7 +2867,7 @@
         <v>22.8863</v>
       </c>
       <c r="G59" t="n">
-        <v>-3094.7522</v>
+        <v>744.3333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2825,6 +2887,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2846,7 +2909,7 @@
         <v>999.9999</v>
       </c>
       <c r="G60" t="n">
-        <v>-3094.7522</v>
+        <v>742.3333333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2866,6 +2929,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2887,7 +2951,7 @@
         <v>62.3699</v>
       </c>
       <c r="G61" t="n">
-        <v>-3032.3823</v>
+        <v>741.3333333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2907,6 +2971,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2928,7 +2993,7 @@
         <v>1107.3482</v>
       </c>
       <c r="G62" t="n">
-        <v>-3032.3823</v>
+        <v>742.6666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2948,6 +3013,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2969,7 +3035,7 @@
         <v>522.15</v>
       </c>
       <c r="G63" t="n">
-        <v>-3554.5323</v>
+        <v>743.3333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2989,6 +3055,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3010,7 +3077,7 @@
         <v>426.6986</v>
       </c>
       <c r="G64" t="n">
-        <v>-3127.8337</v>
+        <v>745</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3030,6 +3097,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3051,7 +3119,7 @@
         <v>230.3299</v>
       </c>
       <c r="G65" t="n">
-        <v>-2897.5038</v>
+        <v>747.6666666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3071,6 +3139,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3092,7 +3161,7 @@
         <v>380.947</v>
       </c>
       <c r="G66" t="n">
-        <v>-2897.5038</v>
+        <v>751</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3112,6 +3181,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3133,7 +3203,7 @@
         <v>21.9741</v>
       </c>
       <c r="G67" t="n">
-        <v>-2919.477899999999</v>
+        <v>749.3333333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3153,6 +3223,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3174,7 +3245,7 @@
         <v>48.1514</v>
       </c>
       <c r="G68" t="n">
-        <v>-2967.6293</v>
+        <v>746</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3194,6 +3265,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3215,7 +3287,7 @@
         <v>70.1255</v>
       </c>
       <c r="G69" t="n">
-        <v>-2897.5038</v>
+        <v>745.6666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3235,6 +3307,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3256,7 +3329,7 @@
         <v>112.39</v>
       </c>
       <c r="G70" t="n">
-        <v>-2785.1138</v>
+        <v>749.3333333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3276,6 +3349,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3297,7 +3371,7 @@
         <v>228</v>
       </c>
       <c r="G71" t="n">
-        <v>-3013.1138</v>
+        <v>752</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3317,6 +3391,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3338,7 +3413,7 @@
         <v>771.5125</v>
       </c>
       <c r="G72" t="n">
-        <v>-3784.6263</v>
+        <v>751</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3358,6 +3433,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3379,7 +3455,7 @@
         <v>674.16</v>
       </c>
       <c r="G73" t="n">
-        <v>-3110.4663</v>
+        <v>752</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3399,6 +3475,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3420,7 +3497,7 @@
         <v>800</v>
       </c>
       <c r="G74" t="n">
-        <v>-3110.4663</v>
+        <v>754.6666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3440,6 +3517,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3461,7 +3539,7 @@
         <v>45.8989</v>
       </c>
       <c r="G75" t="n">
-        <v>-3064.5674</v>
+        <v>759</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3481,6 +3559,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3502,7 +3581,7 @@
         <v>730.8183</v>
       </c>
       <c r="G76" t="n">
-        <v>-3795.3857</v>
+        <v>756</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3522,6 +3601,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3543,7 +3623,7 @@
         <v>613.98</v>
       </c>
       <c r="G77" t="n">
-        <v>-3181.4057</v>
+        <v>753.3333333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3563,6 +3643,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3584,7 +3665,7 @@
         <v>2755.4348</v>
       </c>
       <c r="G78" t="n">
-        <v>-425.9708999999998</v>
+        <v>750</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3604,6 +3685,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3625,7 +3707,7 @@
         <v>106.1031</v>
       </c>
       <c r="G79" t="n">
-        <v>-319.8677999999998</v>
+        <v>756.3333333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3645,6 +3727,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3666,7 +3749,7 @@
         <v>134.6199</v>
       </c>
       <c r="G80" t="n">
-        <v>-454.4876999999998</v>
+        <v>760.6666666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3686,6 +3769,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3707,7 +3791,7 @@
         <v>282.31</v>
       </c>
       <c r="G81" t="n">
-        <v>-172.1776999999998</v>
+        <v>765.3333333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3727,6 +3811,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3748,7 +3833,7 @@
         <v>800</v>
       </c>
       <c r="G82" t="n">
-        <v>-172.1776999999998</v>
+        <v>764.3333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3768,6 +3853,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3789,7 +3875,7 @@
         <v>604.6432</v>
       </c>
       <c r="G83" t="n">
-        <v>-776.8208999999997</v>
+        <v>762</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3809,6 +3895,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3830,7 +3917,7 @@
         <v>227.974</v>
       </c>
       <c r="G84" t="n">
-        <v>-548.8468999999998</v>
+        <v>759.3333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3850,6 +3937,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3871,7 +3959,7 @@
         <v>81.40000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-630.2468999999998</v>
+        <v>755.3333333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3891,6 +3979,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3912,7 +4001,7 @@
         <v>185.51</v>
       </c>
       <c r="G86" t="n">
-        <v>-815.7568999999997</v>
+        <v>753.6666666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3932,6 +4021,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3953,7 +4043,7 @@
         <v>2503.2056</v>
       </c>
       <c r="G87" t="n">
-        <v>-3318.9625</v>
+        <v>751.3333333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3973,6 +4063,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3994,7 +4085,7 @@
         <v>528.4</v>
       </c>
       <c r="G88" t="n">
-        <v>-2790.5625</v>
+        <v>751</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4014,6 +4105,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4035,7 +4127,7 @@
         <v>292.1396</v>
       </c>
       <c r="G89" t="n">
-        <v>-2498.4229</v>
+        <v>752.3333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4055,6 +4147,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4076,7 +4169,7 @@
         <v>1439.7277</v>
       </c>
       <c r="G90" t="n">
-        <v>-2498.4229</v>
+        <v>754</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4096,6 +4189,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4117,7 +4211,7 @@
         <v>48.3421</v>
       </c>
       <c r="G91" t="n">
-        <v>-2450.0808</v>
+        <v>755.3333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4137,6 +4231,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4158,7 +4253,7 @@
         <v>734.4949</v>
       </c>
       <c r="G92" t="n">
-        <v>-3184.5757</v>
+        <v>755.3333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4178,6 +4273,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4199,7 +4295,7 @@
         <v>125.0099</v>
       </c>
       <c r="G93" t="n">
-        <v>-3184.5757</v>
+        <v>755.3333333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4219,6 +4315,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4240,7 +4337,7 @@
         <v>317.585</v>
       </c>
       <c r="G94" t="n">
-        <v>-3184.5757</v>
+        <v>755</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4260,6 +4357,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4281,7 +4379,7 @@
         <v>586.0102000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-2598.5655</v>
+        <v>755.3333333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4301,6 +4399,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4322,7 +4421,7 @@
         <v>36.1635</v>
       </c>
       <c r="G96" t="n">
-        <v>-2562.402</v>
+        <v>756.3333333333334</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4344,6 +4443,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4365,7 +4465,7 @@
         <v>370.3451</v>
       </c>
       <c r="G97" t="n">
-        <v>-2192.0569</v>
+        <v>757.6666666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4385,6 +4485,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4406,7 +4507,7 @@
         <v>2658.537</v>
       </c>
       <c r="G98" t="n">
-        <v>-2192.0569</v>
+        <v>758.6666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4426,6 +4527,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4447,7 +4549,7 @@
         <v>3285.1511</v>
       </c>
       <c r="G99" t="n">
-        <v>1093.0942</v>
+        <v>759.6666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4467,6 +4569,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4488,7 +4591,7 @@
         <v>300</v>
       </c>
       <c r="G100" t="n">
-        <v>793.0942000000005</v>
+        <v>759.3333333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4508,6 +4611,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4529,7 +4633,7 @@
         <v>303.78</v>
       </c>
       <c r="G101" t="n">
-        <v>1096.8742</v>
+        <v>762.6666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4549,6 +4653,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4570,7 +4675,7 @@
         <v>18.0378</v>
       </c>
       <c r="G102" t="n">
-        <v>1096.8742</v>
+        <v>765.3333333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4590,6 +4695,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4611,13 +4717,13 @@
         <v>2001.3268</v>
       </c>
       <c r="G103" t="n">
-        <v>3098.201</v>
+        <v>772</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
@@ -4625,11 +4731,14 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>1.059295485636115</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.008207934336525</v>
       </c>
     </row>
     <row r="104">
@@ -4652,7 +4761,7 @@
         <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>4098.201000000001</v>
+        <v>775.3333333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4661,17 +4770,12 @@
         <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>731</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>1.060663474692203</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4693,7 +4797,7 @@
         <v>41.9099</v>
       </c>
       <c r="G105" t="n">
-        <v>4056.291100000001</v>
+        <v>776</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4707,6 +4811,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4728,7 +4833,7 @@
         <v>310</v>
       </c>
       <c r="G106" t="n">
-        <v>3746.291100000001</v>
+        <v>773</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4742,6 +4847,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4763,13 +4869,13 @@
         <v>158.8437</v>
       </c>
       <c r="G107" t="n">
-        <v>3905.134800000001</v>
+        <v>770.6666666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4777,6 +4883,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest WTC.xlsx
+++ b/BackTest/2019-10-27 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C2" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D2" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E2" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F2" t="n">
-        <v>1737.1523</v>
+        <v>45.7864</v>
       </c>
       <c r="G2" t="n">
-        <v>733.3333333333334</v>
+        <v>-17476.22009999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C3" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D3" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E3" t="n">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F3" t="n">
-        <v>1737.9571</v>
+        <v>422.732</v>
       </c>
       <c r="G3" t="n">
-        <v>734</v>
+        <v>-17053.4881</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>731</v>
-      </c>
-      <c r="K3" t="n">
-        <v>731</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="C4" t="n">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="D4" t="n">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="E4" t="n">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="F4" t="n">
-        <v>2111.665</v>
+        <v>42.9554</v>
       </c>
       <c r="G4" t="n">
-        <v>732.3333333333334</v>
+        <v>-17010.5327</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>737</v>
-      </c>
-      <c r="K4" t="n">
-        <v>731</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="C5" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D5" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E5" t="n">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="F5" t="n">
-        <v>2000.5213</v>
+        <v>13.4952</v>
       </c>
       <c r="G5" t="n">
-        <v>734.3333333333334</v>
+        <v>-17024.0279</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>729</v>
-      </c>
-      <c r="K5" t="n">
-        <v>731</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="C6" t="n">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="D6" t="n">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="E6" t="n">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="F6" t="n">
-        <v>203.013</v>
+        <v>879.6776</v>
       </c>
       <c r="G6" t="n">
-        <v>732</v>
+        <v>-16144.3503</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>737</v>
-      </c>
-      <c r="K6" t="n">
-        <v>731</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -646,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C7" t="n">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="D7" t="n">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="E7" t="n">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6016</v>
+        <v>244.7199</v>
       </c>
       <c r="G7" t="n">
-        <v>732</v>
+        <v>-16389.0702</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>730</v>
-      </c>
-      <c r="K7" t="n">
-        <v>731</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -702,28 +666,20 @@
         <v>731</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>834.2131000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>730</v>
+        <v>-17223.2833</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>729</v>
-      </c>
-      <c r="K8" t="n">
-        <v>731</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -734,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="C9" t="n">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D9" t="n">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E9" t="n">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="F9" t="n">
-        <v>113.8479</v>
+        <v>1086.9691</v>
       </c>
       <c r="G9" t="n">
-        <v>730.3333333333334</v>
+        <v>-16136.3142</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>731</v>
-      </c>
-      <c r="K9" t="n">
-        <v>731</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -778,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C10" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D10" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E10" t="n">
         <v>731</v>
       </c>
       <c r="F10" t="n">
-        <v>8680.1801</v>
+        <v>1146.643</v>
       </c>
       <c r="G10" t="n">
-        <v>733</v>
+        <v>-14989.6712</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>731</v>
-      </c>
-      <c r="K10" t="n">
-        <v>731</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -822,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C11" t="n">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D11" t="n">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="E11" t="n">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1086.9691</v>
       </c>
       <c r="G11" t="n">
-        <v>734</v>
+        <v>-14989.6712</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -846,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>731</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -864,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C12" t="n">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D12" t="n">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="E12" t="n">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="F12" t="n">
-        <v>114.23</v>
+        <v>46.3294</v>
       </c>
       <c r="G12" t="n">
-        <v>732.6666666666666</v>
+        <v>-15036.0006</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -888,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>731</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C13" t="n">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D13" t="n">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E13" t="n">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F13" t="n">
-        <v>85.77</v>
+        <v>1040.3136</v>
       </c>
       <c r="G13" t="n">
-        <v>729.3333333333334</v>
+        <v>-16076.3142</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -930,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>731</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -948,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C14" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D14" t="n">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E14" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F14" t="n">
-        <v>815.1952</v>
+        <v>79.63249999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>726.6666666666666</v>
+        <v>-15996.6817</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -972,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>731</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -990,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="C15" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D15" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E15" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F15" t="n">
-        <v>2626.3294</v>
+        <v>134.07</v>
       </c>
       <c r="G15" t="n">
-        <v>726.3333333333334</v>
+        <v>-15996.6817</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>726</v>
-      </c>
-      <c r="K15" t="n">
-        <v>731</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1034,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="C16" t="n">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="D16" t="n">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="E16" t="n">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="F16" t="n">
-        <v>996.1946</v>
+        <v>1000.0028</v>
       </c>
       <c r="G16" t="n">
-        <v>726</v>
+        <v>-14996.6789</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>726</v>
-      </c>
-      <c r="K16" t="n">
-        <v>731</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1078,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C17" t="n">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D17" t="n">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E17" t="n">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="F17" t="n">
-        <v>517.3656</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>725.6666666666666</v>
+        <v>-14997.6789</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1102,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>731</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1120,40 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C18" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D18" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E18" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F18" t="n">
-        <v>3799.3922</v>
+        <v>455</v>
       </c>
       <c r="G18" t="n">
-        <v>725.3333333333334</v>
+        <v>-15452.6789</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>725</v>
-      </c>
-      <c r="K18" t="n">
-        <v>731</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C19" t="n">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D19" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E19" t="n">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F19" t="n">
-        <v>2339.0479</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>724.6666666666666</v>
+        <v>-15454.5489</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>725</v>
-      </c>
-      <c r="K19" t="n">
-        <v>731</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1220,28 +1098,20 @@
         <v>730</v>
       </c>
       <c r="F20" t="n">
-        <v>93.6724</v>
+        <v>80.2</v>
       </c>
       <c r="G20" t="n">
-        <v>726.3333333333334</v>
+        <v>-15374.3489</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>724</v>
-      </c>
-      <c r="K20" t="n">
-        <v>731</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1252,38 +1122,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="C21" t="n">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="D21" t="n">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="E21" t="n">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="F21" t="n">
-        <v>523.5821999999999</v>
+        <v>4.2907</v>
       </c>
       <c r="G21" t="n">
-        <v>726.6666666666666</v>
+        <v>-15370.0582</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>730</v>
+      </c>
       <c r="K21" t="n">
-        <v>731</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1294,22 +1162,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C22" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D22" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E22" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="F22" t="n">
-        <v>344.0699</v>
+        <v>120</v>
       </c>
       <c r="G22" t="n">
-        <v>728.3333333333334</v>
+        <v>-15490.0582</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1319,11 +1187,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1336,22 +1204,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="C23" t="n">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D23" t="n">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E23" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F23" t="n">
-        <v>1651.2527</v>
+        <v>90</v>
       </c>
       <c r="G23" t="n">
-        <v>730</v>
+        <v>-15490.0582</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1361,11 +1229,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1381,19 +1249,19 @@
         <v>735</v>
       </c>
       <c r="C24" t="n">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D24" t="n">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E24" t="n">
         <v>735</v>
       </c>
       <c r="F24" t="n">
-        <v>5987.6534</v>
+        <v>306.1</v>
       </c>
       <c r="G24" t="n">
-        <v>734</v>
+        <v>-15183.9582</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1402,14 +1270,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>731</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1420,22 +1282,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C25" t="n">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D25" t="n">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E25" t="n">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="F25" t="n">
-        <v>1014.1434</v>
+        <v>97.8385</v>
       </c>
       <c r="G25" t="n">
-        <v>734.3333333333334</v>
+        <v>-15086.1197</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1444,14 +1306,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>731</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1462,22 +1318,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="C26" t="n">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D26" t="n">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="E26" t="n">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001</v>
+        <v>147.6</v>
       </c>
       <c r="G26" t="n">
-        <v>732.6666666666666</v>
+        <v>-14938.5197</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1486,14 +1342,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>731</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1504,22 +1354,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C27" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D27" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E27" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>22.3655</v>
       </c>
       <c r="G27" t="n">
-        <v>729.6666666666666</v>
+        <v>-14960.8852</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1528,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>731</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1546,22 +1390,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C28" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D28" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E28" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="F28" t="n">
-        <v>22.8072</v>
+        <v>669.6399</v>
       </c>
       <c r="G28" t="n">
-        <v>729.3333333333334</v>
+        <v>-14960.8852</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1570,14 +1414,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>731</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1426,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C29" t="n">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="D29" t="n">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E29" t="n">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="F29" t="n">
-        <v>374.4279</v>
+        <v>1692.0054</v>
       </c>
       <c r="G29" t="n">
-        <v>729</v>
+        <v>-13268.8798</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1612,14 +1450,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>731</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1630,22 +1462,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C30" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D30" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E30" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>1397.846</v>
       </c>
       <c r="G30" t="n">
-        <v>731.3333333333334</v>
+        <v>-14666.7258</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1654,14 +1486,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>731</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1672,22 +1498,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C31" t="n">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D31" t="n">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E31" t="n">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F31" t="n">
-        <v>47.981</v>
+        <v>1737.1523</v>
       </c>
       <c r="G31" t="n">
-        <v>731.3333333333334</v>
+        <v>-16403.8781</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1696,14 +1522,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>731</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1714,22 +1534,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C32" t="n">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D32" t="n">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="E32" t="n">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F32" t="n">
-        <v>47.9809</v>
+        <v>1737.9571</v>
       </c>
       <c r="G32" t="n">
-        <v>731.6666666666666</v>
+        <v>-14665.921</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1738,14 +1558,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>731</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1756,22 +1570,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C33" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D33" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E33" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F33" t="n">
-        <v>773.1677</v>
+        <v>2111.665</v>
       </c>
       <c r="G33" t="n">
-        <v>728.3333333333334</v>
+        <v>-16777.586</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1780,14 +1594,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>731</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1798,40 +1606,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C34" t="n">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="D34" t="n">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E34" t="n">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F34" t="n">
-        <v>42.5563</v>
+        <v>2000.5213</v>
       </c>
       <c r="G34" t="n">
-        <v>727.6666666666666</v>
+        <v>-14777.0647</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>726</v>
-      </c>
-      <c r="K34" t="n">
-        <v>731</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1842,40 +1642,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C35" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D35" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E35" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F35" t="n">
-        <v>3.1549</v>
+        <v>203.013</v>
       </c>
       <c r="G35" t="n">
-        <v>727.3333333333334</v>
+        <v>-14980.0777</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>727</v>
-      </c>
-      <c r="K35" t="n">
-        <v>731</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1886,22 +1678,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C36" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D36" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E36" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F36" t="n">
-        <v>920.0078</v>
+        <v>1.6016</v>
       </c>
       <c r="G36" t="n">
-        <v>727.3333333333334</v>
+        <v>-14981.6793</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1910,14 +1702,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>731</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1928,22 +1714,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C37" t="n">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D37" t="n">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E37" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F37" t="n">
-        <v>2018.6405</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>729.6666666666666</v>
+        <v>-14977.6793</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1952,14 +1738,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>731</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1970,22 +1750,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C38" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D38" t="n">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E38" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F38" t="n">
-        <v>66.21120000000001</v>
+        <v>113.8479</v>
       </c>
       <c r="G38" t="n">
-        <v>730.6666666666666</v>
+        <v>-14977.6793</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1994,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>731</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2012,22 +1786,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C39" t="n">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D39" t="n">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E39" t="n">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F39" t="n">
-        <v>78.7664</v>
+        <v>8680.1801</v>
       </c>
       <c r="G39" t="n">
-        <v>733.3333333333334</v>
+        <v>-6297.4992</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2036,14 +1810,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>731</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2054,22 +1822,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C40" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D40" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E40" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F40" t="n">
-        <v>280.6</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>734</v>
+        <v>-6298.4992</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2078,14 +1846,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>731</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2096,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C41" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D41" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E41" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F41" t="n">
-        <v>485.8</v>
+        <v>114.23</v>
       </c>
       <c r="G41" t="n">
-        <v>734.3333333333334</v>
+        <v>-6412.7292</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2120,14 +1882,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>731</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2138,22 +1894,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C42" t="n">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D42" t="n">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E42" t="n">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F42" t="n">
-        <v>486.1001</v>
+        <v>85.77</v>
       </c>
       <c r="G42" t="n">
-        <v>735.3333333333334</v>
+        <v>-6412.7292</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2162,14 +1918,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>731</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2180,22 +1930,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C43" t="n">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="D43" t="n">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E43" t="n">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F43" t="n">
-        <v>287.6708</v>
+        <v>815.1952</v>
       </c>
       <c r="G43" t="n">
-        <v>735.6666666666666</v>
+        <v>-7227.9244</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2204,14 +1954,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>731</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2222,38 +1966,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="C44" t="n">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="D44" t="n">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E44" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F44" t="n">
-        <v>1288.3833</v>
+        <v>2626.3294</v>
       </c>
       <c r="G44" t="n">
-        <v>738.3333333333334</v>
+        <v>-7227.9244</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>726</v>
+      </c>
       <c r="K44" t="n">
-        <v>731</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2264,36 +2006,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="C45" t="n">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="D45" t="n">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="E45" t="n">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F45" t="n">
-        <v>1023.7431</v>
+        <v>996.1946</v>
       </c>
       <c r="G45" t="n">
-        <v>738.6666666666666</v>
+        <v>-7227.9244</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>726</v>
+      </c>
       <c r="K45" t="n">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2306,36 +2050,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="C46" t="n">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="D46" t="n">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="E46" t="n">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="F46" t="n">
-        <v>22.252</v>
+        <v>517.3656</v>
       </c>
       <c r="G46" t="n">
-        <v>738.3333333333334</v>
+        <v>-7745.29</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>726</v>
+      </c>
       <c r="K46" t="n">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2348,38 +2094,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C47" t="n">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D47" t="n">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E47" t="n">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F47" t="n">
-        <v>1518.5845</v>
+        <v>3799.3922</v>
       </c>
       <c r="G47" t="n">
-        <v>736.3333333333334</v>
+        <v>-7745.29</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>725</v>
+      </c>
       <c r="K47" t="n">
-        <v>731</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2390,36 +2134,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="C48" t="n">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D48" t="n">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="E48" t="n">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F48" t="n">
-        <v>3655.8966</v>
+        <v>2339.0479</v>
       </c>
       <c r="G48" t="n">
-        <v>735</v>
+        <v>-10084.3379</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>725</v>
+      </c>
       <c r="K48" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2432,32 +2178,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C49" t="n">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D49" t="n">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E49" t="n">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F49" t="n">
-        <v>285.2199</v>
+        <v>93.6724</v>
       </c>
       <c r="G49" t="n">
-        <v>734.6666666666666</v>
+        <v>-9990.665500000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>724</v>
+      </c>
       <c r="K49" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2474,32 +2222,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C50" t="n">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="D50" t="n">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E50" t="n">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F50" t="n">
-        <v>55.77</v>
+        <v>523.5821999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>735</v>
+        <v>-10514.2477</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>730</v>
+      </c>
       <c r="K50" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2516,32 +2266,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C51" t="n">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D51" t="n">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E51" t="n">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="F51" t="n">
-        <v>2335</v>
+        <v>344.0699</v>
       </c>
       <c r="G51" t="n">
-        <v>736.6666666666666</v>
+        <v>-10170.1778</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>726</v>
+      </c>
       <c r="K51" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2558,32 +2310,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="C52" t="n">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="D52" t="n">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="E52" t="n">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="F52" t="n">
-        <v>810</v>
+        <v>1651.2527</v>
       </c>
       <c r="G52" t="n">
-        <v>741</v>
+        <v>-8518.9251</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>729</v>
+      </c>
       <c r="K52" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2600,22 +2354,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C53" t="n">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D53" t="n">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E53" t="n">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="F53" t="n">
-        <v>47.3116</v>
+        <v>5987.6534</v>
       </c>
       <c r="G53" t="n">
-        <v>743</v>
+        <v>-2531.2717</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2625,7 +2379,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2642,22 +2396,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C54" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="D54" t="n">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E54" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="F54" t="n">
-        <v>23.8612</v>
+        <v>1014.1434</v>
       </c>
       <c r="G54" t="n">
-        <v>744.6666666666666</v>
+        <v>-3545.4151</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2667,7 +2421,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2684,22 +2438,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C55" t="n">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D55" t="n">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="E55" t="n">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="F55" t="n">
-        <v>46.1272</v>
+        <v>0.0001</v>
       </c>
       <c r="G55" t="n">
-        <v>742.6666666666666</v>
+        <v>-3545.4151</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2709,7 +2463,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2726,22 +2480,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="C56" t="n">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="D56" t="n">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="E56" t="n">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="F56" t="n">
-        <v>516.5984</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>744</v>
+        <v>-3547.4151</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2751,7 +2505,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2768,22 +2522,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="C57" t="n">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="D57" t="n">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="E57" t="n">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="F57" t="n">
-        <v>1095.842</v>
+        <v>22.8072</v>
       </c>
       <c r="G57" t="n">
-        <v>744.6666666666666</v>
+        <v>-3547.4151</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2793,7 +2547,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2810,22 +2564,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="C58" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="D58" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="E58" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="F58" t="n">
-        <v>800</v>
+        <v>374.4279</v>
       </c>
       <c r="G58" t="n">
-        <v>746.3333333333334</v>
+        <v>-3547.4151</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2835,7 +2589,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2852,22 +2606,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C59" t="n">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D59" t="n">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E59" t="n">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F59" t="n">
-        <v>22.8863</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>744.3333333333334</v>
+        <v>-3537.4151</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2877,7 +2631,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2894,22 +2648,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C60" t="n">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="D60" t="n">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="E60" t="n">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="F60" t="n">
-        <v>999.9999</v>
+        <v>47.981</v>
       </c>
       <c r="G60" t="n">
-        <v>742.3333333333334</v>
+        <v>-3585.3961</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2919,7 +2673,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2936,22 +2690,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C61" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="D61" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="E61" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="F61" t="n">
-        <v>62.3699</v>
+        <v>47.9809</v>
       </c>
       <c r="G61" t="n">
-        <v>741.3333333333334</v>
+        <v>-3537.4152</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2961,7 +2715,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2978,22 +2732,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="C62" t="n">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="D62" t="n">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="E62" t="n">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="F62" t="n">
-        <v>1107.3482</v>
+        <v>773.1677</v>
       </c>
       <c r="G62" t="n">
-        <v>742.6666666666666</v>
+        <v>-4310.5829</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3003,7 +2757,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3020,22 +2774,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="C63" t="n">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="D63" t="n">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="E63" t="n">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="F63" t="n">
-        <v>522.15</v>
+        <v>42.5563</v>
       </c>
       <c r="G63" t="n">
-        <v>743.3333333333334</v>
+        <v>-4268.0266</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3045,7 +2799,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3062,22 +2816,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="C64" t="n">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="D64" t="n">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="E64" t="n">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="F64" t="n">
-        <v>426.6986</v>
+        <v>3.1549</v>
       </c>
       <c r="G64" t="n">
-        <v>745</v>
+        <v>-4264.8717</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3087,7 +2841,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3104,22 +2858,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="C65" t="n">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="D65" t="n">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="E65" t="n">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="F65" t="n">
-        <v>230.3299</v>
+        <v>920.0078</v>
       </c>
       <c r="G65" t="n">
-        <v>747.6666666666666</v>
+        <v>-5184.8795</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3129,7 +2883,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3146,22 +2900,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C66" t="n">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="D66" t="n">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="E66" t="n">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="F66" t="n">
-        <v>380.947</v>
+        <v>2018.6405</v>
       </c>
       <c r="G66" t="n">
-        <v>751</v>
+        <v>-3166.239</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3171,7 +2925,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3188,22 +2942,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C67" t="n">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="D67" t="n">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="E67" t="n">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="F67" t="n">
-        <v>21.9741</v>
+        <v>66.21120000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>749.3333333333334</v>
+        <v>-3232.4502</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3213,7 +2967,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3230,22 +2984,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="C68" t="n">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D68" t="n">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E68" t="n">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F68" t="n">
-        <v>48.1514</v>
+        <v>78.7664</v>
       </c>
       <c r="G68" t="n">
-        <v>746</v>
+        <v>-3153.6838</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3255,7 +3009,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3272,22 +3026,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="C69" t="n">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="D69" t="n">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="E69" t="n">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F69" t="n">
-        <v>70.1255</v>
+        <v>280.6</v>
       </c>
       <c r="G69" t="n">
-        <v>745.6666666666666</v>
+        <v>-2873.0838</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3297,7 +3051,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3314,22 +3068,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="C70" t="n">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="D70" t="n">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="E70" t="n">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="F70" t="n">
-        <v>112.39</v>
+        <v>485.8</v>
       </c>
       <c r="G70" t="n">
-        <v>749.3333333333334</v>
+        <v>-3358.883800000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3339,7 +3093,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3356,22 +3110,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="C71" t="n">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="D71" t="n">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="E71" t="n">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="F71" t="n">
-        <v>228</v>
+        <v>486.1001</v>
       </c>
       <c r="G71" t="n">
-        <v>752</v>
+        <v>-2872.7837</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3381,7 +3135,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3398,22 +3152,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C72" t="n">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="D72" t="n">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E72" t="n">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="F72" t="n">
-        <v>771.5125</v>
+        <v>287.6708</v>
       </c>
       <c r="G72" t="n">
-        <v>751</v>
+        <v>-2872.7837</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3423,7 +3177,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3440,22 +3194,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="C73" t="n">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="D73" t="n">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="E73" t="n">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="F73" t="n">
-        <v>674.16</v>
+        <v>1288.3833</v>
       </c>
       <c r="G73" t="n">
-        <v>752</v>
+        <v>-1584.4004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3465,7 +3219,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3482,22 +3236,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="C74" t="n">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="D74" t="n">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="E74" t="n">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>1023.7431</v>
       </c>
       <c r="G74" t="n">
-        <v>754.6666666666666</v>
+        <v>-2608.143500000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3507,7 +3261,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3524,22 +3278,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="C75" t="n">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="D75" t="n">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="E75" t="n">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="F75" t="n">
-        <v>45.8989</v>
+        <v>22.252</v>
       </c>
       <c r="G75" t="n">
-        <v>759</v>
+        <v>-2630.395500000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3549,7 +3303,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3566,22 +3320,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="C76" t="n">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="D76" t="n">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="E76" t="n">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="F76" t="n">
-        <v>730.8183</v>
+        <v>1518.5845</v>
       </c>
       <c r="G76" t="n">
-        <v>756</v>
+        <v>-4148.98</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3591,7 +3345,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3608,22 +3362,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C77" t="n">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="D77" t="n">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E77" t="n">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="F77" t="n">
-        <v>613.98</v>
+        <v>3655.8966</v>
       </c>
       <c r="G77" t="n">
-        <v>753.3333333333334</v>
+        <v>-7804.876600000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3633,7 +3387,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3650,22 +3404,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C78" t="n">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="D78" t="n">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="E78" t="n">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F78" t="n">
-        <v>2755.4348</v>
+        <v>285.2199</v>
       </c>
       <c r="G78" t="n">
-        <v>750</v>
+        <v>-7519.6567</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3675,7 +3429,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3692,22 +3446,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="C79" t="n">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="D79" t="n">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="E79" t="n">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="F79" t="n">
-        <v>106.1031</v>
+        <v>55.77</v>
       </c>
       <c r="G79" t="n">
-        <v>756.3333333333334</v>
+        <v>-7463.8867</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3717,7 +3471,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3734,22 +3488,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="C80" t="n">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="D80" t="n">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="E80" t="n">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="F80" t="n">
-        <v>134.6199</v>
+        <v>2335</v>
       </c>
       <c r="G80" t="n">
-        <v>760.6666666666666</v>
+        <v>-5128.8867</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3759,7 +3513,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3776,22 +3530,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="C81" t="n">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="D81" t="n">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="E81" t="n">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="F81" t="n">
-        <v>282.31</v>
+        <v>810</v>
       </c>
       <c r="G81" t="n">
-        <v>765.3333333333334</v>
+        <v>-4318.8867</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3801,7 +3555,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3818,22 +3572,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="C82" t="n">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="D82" t="n">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="E82" t="n">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="F82" t="n">
-        <v>800</v>
+        <v>47.3116</v>
       </c>
       <c r="G82" t="n">
-        <v>764.3333333333334</v>
+        <v>-4366.1983</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3843,7 +3597,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3860,22 +3614,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C83" t="n">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D83" t="n">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="E83" t="n">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="F83" t="n">
-        <v>604.6432</v>
+        <v>23.8612</v>
       </c>
       <c r="G83" t="n">
-        <v>762</v>
+        <v>-4342.3371</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3885,7 +3639,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3902,22 +3656,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="C84" t="n">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="D84" t="n">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="E84" t="n">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F84" t="n">
-        <v>227.974</v>
+        <v>46.1272</v>
       </c>
       <c r="G84" t="n">
-        <v>759.3333333333334</v>
+        <v>-4388.4643</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3927,7 +3681,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3944,22 +3698,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C85" t="n">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D85" t="n">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E85" t="n">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F85" t="n">
-        <v>81.40000000000001</v>
+        <v>516.5984</v>
       </c>
       <c r="G85" t="n">
-        <v>755.3333333333334</v>
+        <v>-3871.8659</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3969,7 +3723,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3986,22 +3740,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="C86" t="n">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D86" t="n">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E86" t="n">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F86" t="n">
-        <v>185.51</v>
+        <v>1095.842</v>
       </c>
       <c r="G86" t="n">
-        <v>753.6666666666666</v>
+        <v>-3871.8659</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4011,7 +3765,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4028,22 +3782,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C87" t="n">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D87" t="n">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E87" t="n">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F87" t="n">
-        <v>2503.2056</v>
+        <v>800</v>
       </c>
       <c r="G87" t="n">
-        <v>751.3333333333334</v>
+        <v>-3071.8659</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4053,7 +3807,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4070,22 +3824,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="C88" t="n">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="D88" t="n">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="E88" t="n">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="F88" t="n">
-        <v>528.4</v>
+        <v>22.8863</v>
       </c>
       <c r="G88" t="n">
-        <v>751</v>
+        <v>-3094.7522</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4095,7 +3849,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4112,22 +3866,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C89" t="n">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="D89" t="n">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="E89" t="n">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="F89" t="n">
-        <v>292.1396</v>
+        <v>999.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>752.3333333333334</v>
+        <v>-3094.7522</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4137,7 +3891,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4154,22 +3908,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C90" t="n">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="D90" t="n">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="E90" t="n">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="F90" t="n">
-        <v>1439.7277</v>
+        <v>62.3699</v>
       </c>
       <c r="G90" t="n">
-        <v>754</v>
+        <v>-3032.3823</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4179,7 +3933,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4196,22 +3950,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="C91" t="n">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D91" t="n">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="E91" t="n">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="F91" t="n">
-        <v>48.3421</v>
+        <v>1107.3482</v>
       </c>
       <c r="G91" t="n">
-        <v>755.3333333333334</v>
+        <v>-3032.3823</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4221,7 +3975,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4238,22 +3992,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="C92" t="n">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="D92" t="n">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="E92" t="n">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="F92" t="n">
-        <v>734.4949</v>
+        <v>522.15</v>
       </c>
       <c r="G92" t="n">
-        <v>755.3333333333334</v>
+        <v>-3554.5323</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4263,7 +4017,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4280,22 +4034,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C93" t="n">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D93" t="n">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E93" t="n">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F93" t="n">
-        <v>125.0099</v>
+        <v>426.6986</v>
       </c>
       <c r="G93" t="n">
-        <v>755.3333333333334</v>
+        <v>-3127.8337</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4305,7 +4059,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4322,22 +4076,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C94" t="n">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D94" t="n">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E94" t="n">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F94" t="n">
-        <v>317.585</v>
+        <v>230.3299</v>
       </c>
       <c r="G94" t="n">
-        <v>755</v>
+        <v>-2897.5038</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4347,7 +4101,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4364,22 +4118,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C95" t="n">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D95" t="n">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E95" t="n">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F95" t="n">
-        <v>586.0102000000001</v>
+        <v>380.947</v>
       </c>
       <c r="G95" t="n">
-        <v>755.3333333333334</v>
+        <v>-2897.5038</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4389,7 +4143,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4406,34 +4160,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="C96" t="n">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D96" t="n">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="E96" t="n">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="F96" t="n">
-        <v>36.1635</v>
+        <v>21.9741</v>
       </c>
       <c r="G96" t="n">
-        <v>756.3333333333334</v>
+        <v>-2919.477899999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>756</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4450,22 +4202,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="C97" t="n">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="D97" t="n">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="E97" t="n">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F97" t="n">
-        <v>370.3451</v>
+        <v>48.1514</v>
       </c>
       <c r="G97" t="n">
-        <v>757.6666666666666</v>
+        <v>-2967.6293</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4475,7 +4227,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4492,22 +4244,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C98" t="n">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D98" t="n">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E98" t="n">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F98" t="n">
-        <v>2658.537</v>
+        <v>70.1255</v>
       </c>
       <c r="G98" t="n">
-        <v>758.6666666666666</v>
+        <v>-2897.5038</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4517,7 +4269,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4534,22 +4286,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C99" t="n">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D99" t="n">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E99" t="n">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="F99" t="n">
-        <v>3285.1511</v>
+        <v>112.39</v>
       </c>
       <c r="G99" t="n">
-        <v>759.6666666666666</v>
+        <v>-2785.1138</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4559,7 +4311,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4576,22 +4328,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="C100" t="n">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="D100" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E100" t="n">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="G100" t="n">
-        <v>759.3333333333334</v>
+        <v>-3013.1138</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4601,7 +4353,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4618,22 +4370,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="C101" t="n">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="D101" t="n">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="E101" t="n">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="F101" t="n">
-        <v>303.78</v>
+        <v>771.5125</v>
       </c>
       <c r="G101" t="n">
-        <v>762.6666666666666</v>
+        <v>-3784.6263</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4643,7 +4395,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4660,22 +4412,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="C102" t="n">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="D102" t="n">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="E102" t="n">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F102" t="n">
-        <v>18.0378</v>
+        <v>674.16</v>
       </c>
       <c r="G102" t="n">
-        <v>765.3333333333334</v>
+        <v>-3110.4663</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4685,7 +4437,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4702,76 +4454,80 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="C103" t="n">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="D103" t="n">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="E103" t="n">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="F103" t="n">
-        <v>2001.3268</v>
+        <v>800</v>
       </c>
       <c r="G103" t="n">
-        <v>772</v>
+        <v>-3110.4663</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>1.059295485636115</v>
-      </c>
-      <c r="N103" t="n">
-        <v>1.008207934336525</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="C104" t="n">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="D104" t="n">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="E104" t="n">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>45.8989</v>
       </c>
       <c r="G104" t="n">
-        <v>775.3333333333334</v>
+        <v>-3064.5674</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>725</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4782,32 +4538,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="C105" t="n">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="D105" t="n">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="E105" t="n">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="F105" t="n">
-        <v>41.9099</v>
+        <v>730.8183</v>
       </c>
       <c r="G105" t="n">
-        <v>776</v>
+        <v>-3795.3857</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>725</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4818,32 +4580,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="C106" t="n">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="D106" t="n">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="E106" t="n">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="F106" t="n">
-        <v>310</v>
+        <v>613.98</v>
       </c>
       <c r="G106" t="n">
-        <v>773</v>
+        <v>-3181.4057</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>725</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4854,36 +4622,1244 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>751</v>
+      </c>
+      <c r="C107" t="n">
+        <v>751</v>
+      </c>
+      <c r="D107" t="n">
+        <v>751</v>
+      </c>
+      <c r="E107" t="n">
+        <v>751</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2755.4348</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-425.9708999999998</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>725</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>757</v>
+      </c>
+      <c r="C108" t="n">
+        <v>768</v>
+      </c>
+      <c r="D108" t="n">
+        <v>768</v>
+      </c>
+      <c r="E108" t="n">
+        <v>757</v>
+      </c>
+      <c r="F108" t="n">
+        <v>106.1031</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-319.8677999999998</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>725</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>762</v>
+      </c>
+      <c r="C109" t="n">
+        <v>763</v>
+      </c>
+      <c r="D109" t="n">
+        <v>763</v>
+      </c>
+      <c r="E109" t="n">
+        <v>762</v>
+      </c>
+      <c r="F109" t="n">
+        <v>134.6199</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-454.4876999999998</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>725</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>765</v>
+      </c>
+      <c r="C110" t="n">
+        <v>765</v>
+      </c>
+      <c r="D110" t="n">
+        <v>765</v>
+      </c>
+      <c r="E110" t="n">
+        <v>765</v>
+      </c>
+      <c r="F110" t="n">
+        <v>282.31</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-172.1776999999998</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>725</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>765</v>
+      </c>
+      <c r="C111" t="n">
+        <v>765</v>
+      </c>
+      <c r="D111" t="n">
+        <v>765</v>
+      </c>
+      <c r="E111" t="n">
+        <v>765</v>
+      </c>
+      <c r="F111" t="n">
+        <v>800</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-172.1776999999998</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>725</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>757</v>
+      </c>
+      <c r="C112" t="n">
+        <v>756</v>
+      </c>
+      <c r="D112" t="n">
+        <v>757</v>
+      </c>
+      <c r="E112" t="n">
+        <v>756</v>
+      </c>
+      <c r="F112" t="n">
+        <v>604.6432</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-776.8208999999997</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>725</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>757</v>
+      </c>
+      <c r="C113" t="n">
+        <v>757</v>
+      </c>
+      <c r="D113" t="n">
+        <v>757</v>
+      </c>
+      <c r="E113" t="n">
+        <v>757</v>
+      </c>
+      <c r="F113" t="n">
+        <v>227.974</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-548.8468999999998</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>725</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>753</v>
+      </c>
+      <c r="C114" t="n">
+        <v>753</v>
+      </c>
+      <c r="D114" t="n">
+        <v>753</v>
+      </c>
+      <c r="E114" t="n">
+        <v>753</v>
+      </c>
+      <c r="F114" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-630.2468999999998</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>725</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>751</v>
+      </c>
+      <c r="C115" t="n">
+        <v>751</v>
+      </c>
+      <c r="D115" t="n">
+        <v>751</v>
+      </c>
+      <c r="E115" t="n">
+        <v>751</v>
+      </c>
+      <c r="F115" t="n">
+        <v>185.51</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-815.7568999999997</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>725</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>751</v>
+      </c>
+      <c r="C116" t="n">
+        <v>750</v>
+      </c>
+      <c r="D116" t="n">
+        <v>751</v>
+      </c>
+      <c r="E116" t="n">
+        <v>750</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2503.2056</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3318.9625</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>725</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>752</v>
+      </c>
+      <c r="C117" t="n">
+        <v>752</v>
+      </c>
+      <c r="D117" t="n">
+        <v>752</v>
+      </c>
+      <c r="E117" t="n">
+        <v>752</v>
+      </c>
+      <c r="F117" t="n">
+        <v>528.4</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2790.5625</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>725</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>753</v>
+      </c>
+      <c r="C118" t="n">
+        <v>755</v>
+      </c>
+      <c r="D118" t="n">
+        <v>755</v>
+      </c>
+      <c r="E118" t="n">
+        <v>753</v>
+      </c>
+      <c r="F118" t="n">
+        <v>292.1396</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2498.4229</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>725</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>755</v>
+      </c>
+      <c r="C119" t="n">
+        <v>755</v>
+      </c>
+      <c r="D119" t="n">
+        <v>755</v>
+      </c>
+      <c r="E119" t="n">
+        <v>755</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1439.7277</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2498.4229</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>725</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>756</v>
+      </c>
+      <c r="C120" t="n">
+        <v>756</v>
+      </c>
+      <c r="D120" t="n">
+        <v>756</v>
+      </c>
+      <c r="E120" t="n">
+        <v>756</v>
+      </c>
+      <c r="F120" t="n">
+        <v>48.3421</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2450.0808</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>725</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>756</v>
+      </c>
+      <c r="C121" t="n">
+        <v>755</v>
+      </c>
+      <c r="D121" t="n">
+        <v>756</v>
+      </c>
+      <c r="E121" t="n">
+        <v>755</v>
+      </c>
+      <c r="F121" t="n">
+        <v>734.4949</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-3184.5757</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>725</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>756</v>
+      </c>
+      <c r="C122" t="n">
+        <v>755</v>
+      </c>
+      <c r="D122" t="n">
+        <v>756</v>
+      </c>
+      <c r="E122" t="n">
+        <v>755</v>
+      </c>
+      <c r="F122" t="n">
+        <v>125.0099</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-3184.5757</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>725</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>755</v>
+      </c>
+      <c r="C123" t="n">
+        <v>755</v>
+      </c>
+      <c r="D123" t="n">
+        <v>755</v>
+      </c>
+      <c r="E123" t="n">
+        <v>755</v>
+      </c>
+      <c r="F123" t="n">
+        <v>317.585</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-3184.5757</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>725</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>756</v>
+      </c>
+      <c r="C124" t="n">
+        <v>756</v>
+      </c>
+      <c r="D124" t="n">
+        <v>756</v>
+      </c>
+      <c r="E124" t="n">
+        <v>756</v>
+      </c>
+      <c r="F124" t="n">
+        <v>586.0102000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2598.5655</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>725</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>758</v>
+      </c>
+      <c r="C125" t="n">
+        <v>758</v>
+      </c>
+      <c r="D125" t="n">
+        <v>758</v>
+      </c>
+      <c r="E125" t="n">
+        <v>758</v>
+      </c>
+      <c r="F125" t="n">
+        <v>36.1635</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2562.402</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>725</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>757</v>
+      </c>
+      <c r="C126" t="n">
+        <v>759</v>
+      </c>
+      <c r="D126" t="n">
+        <v>759</v>
+      </c>
+      <c r="E126" t="n">
+        <v>757</v>
+      </c>
+      <c r="F126" t="n">
+        <v>370.3451</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2192.0569</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>725</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>759</v>
+      </c>
+      <c r="C127" t="n">
+        <v>759</v>
+      </c>
+      <c r="D127" t="n">
+        <v>759</v>
+      </c>
+      <c r="E127" t="n">
+        <v>759</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2658.537</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2192.0569</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>725</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>760</v>
+      </c>
+      <c r="C128" t="n">
+        <v>761</v>
+      </c>
+      <c r="D128" t="n">
+        <v>761</v>
+      </c>
+      <c r="E128" t="n">
+        <v>760</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3285.1511</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1093.0942</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>725</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>759</v>
+      </c>
+      <c r="C129" t="n">
+        <v>758</v>
+      </c>
+      <c r="D129" t="n">
+        <v>759</v>
+      </c>
+      <c r="E129" t="n">
+        <v>758</v>
+      </c>
+      <c r="F129" t="n">
+        <v>300</v>
+      </c>
+      <c r="G129" t="n">
+        <v>793.0942000000005</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>725</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>768</v>
+      </c>
+      <c r="C130" t="n">
+        <v>769</v>
+      </c>
+      <c r="D130" t="n">
+        <v>769</v>
+      </c>
+      <c r="E130" t="n">
+        <v>768</v>
+      </c>
+      <c r="F130" t="n">
+        <v>303.78</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1096.8742</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>725</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>769</v>
+      </c>
+      <c r="C131" t="n">
+        <v>769</v>
+      </c>
+      <c r="D131" t="n">
+        <v>769</v>
+      </c>
+      <c r="E131" t="n">
+        <v>769</v>
+      </c>
+      <c r="F131" t="n">
+        <v>18.0378</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1096.8742</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>725</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>778</v>
+      </c>
+      <c r="C132" t="n">
+        <v>778</v>
+      </c>
+      <c r="D132" t="n">
+        <v>778</v>
+      </c>
+      <c r="E132" t="n">
+        <v>778</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2001.3268</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3098.201</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>725</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>779</v>
+      </c>
+      <c r="C133" t="n">
+        <v>779</v>
+      </c>
+      <c r="D133" t="n">
+        <v>779</v>
+      </c>
+      <c r="E133" t="n">
+        <v>779</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4098.201000000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>725</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1.06948275862069</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1.023448275862069</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>771</v>
+      </c>
+      <c r="C134" t="n">
+        <v>771</v>
+      </c>
+      <c r="D134" t="n">
+        <v>771</v>
+      </c>
+      <c r="E134" t="n">
+        <v>771</v>
+      </c>
+      <c r="F134" t="n">
+        <v>41.9099</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4056.291100000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>770</v>
+      </c>
+      <c r="C135" t="n">
+        <v>769</v>
+      </c>
+      <c r="D135" t="n">
+        <v>770</v>
+      </c>
+      <c r="E135" t="n">
+        <v>769</v>
+      </c>
+      <c r="F135" t="n">
+        <v>310</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3746.291100000001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>772</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C136" t="n">
         <v>772</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D136" t="n">
         <v>772</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E136" t="n">
         <v>772</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F136" t="n">
         <v>158.8437</v>
       </c>
-      <c r="G107" t="n">
-        <v>770.6666666666666</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>3905.134800000001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest WTC.xlsx
+++ b/BackTest/2019-10-27 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,22 +1078,15 @@
         <v>-15370.0582</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>730</v>
-      </c>
-      <c r="K21" t="n">
-        <v>730</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1182,22 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>730</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1224,22 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>730</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1302,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1410,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1446,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1482,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1518,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1590,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1626,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1698,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1734,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1770,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1806,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1950,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1984,22 +1837,15 @@
         <v>-7227.9244</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>726</v>
-      </c>
-      <c r="K44" t="n">
-        <v>726</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2024,26 +1870,15 @@
         <v>-7227.9244</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>726</v>
-      </c>
-      <c r="K45" t="n">
-        <v>726</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2068,26 +1903,15 @@
         <v>-7745.29</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>726</v>
-      </c>
-      <c r="K46" t="n">
-        <v>726</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2112,22 +1936,19 @@
         <v>-7745.29</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="J47" t="n">
         <v>725</v>
       </c>
-      <c r="K47" t="n">
-        <v>725</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,26 +1973,23 @@
         <v>-10084.3379</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="J48" t="n">
         <v>725</v>
       </c>
-      <c r="K48" t="n">
-        <v>725</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2196,26 +2014,23 @@
         <v>-9990.665500000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="J49" t="n">
-        <v>724</v>
-      </c>
-      <c r="K49" t="n">
-        <v>725</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>725</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,26 +2055,23 @@
         <v>-10514.2477</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="J50" t="n">
-        <v>730</v>
-      </c>
-      <c r="K50" t="n">
-        <v>725</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>725</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2284,26 +2096,23 @@
         <v>-10170.1778</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="J51" t="n">
-        <v>726</v>
-      </c>
-      <c r="K51" t="n">
-        <v>725</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>725</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2328,26 +2137,23 @@
         <v>-8518.9251</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="J52" t="n">
-        <v>729</v>
-      </c>
-      <c r="K52" t="n">
-        <v>725</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>725</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2372,24 +2178,23 @@
         <v>-2531.2717</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>725</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="J53" t="n">
+        <v>725</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2414,24 +2219,23 @@
         <v>-3545.4151</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>725</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>738</v>
+      </c>
+      <c r="J54" t="n">
+        <v>725</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2458,22 +2262,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>725</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>725</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2498,24 +2299,23 @@
         <v>-3547.4151</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>725</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>730</v>
+      </c>
+      <c r="J56" t="n">
+        <v>725</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2542,22 +2342,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>725</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>725</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2582,24 +2379,23 @@
         <v>-3547.4151</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>725</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>729</v>
+      </c>
+      <c r="J58" t="n">
+        <v>725</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2626,22 +2422,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>725</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>725</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2668,22 +2461,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>725</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>725</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2710,22 +2500,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>725</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>725</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2752,22 +2539,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>725</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>725</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2792,24 +2576,23 @@
         <v>-4268.0266</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>725</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>726</v>
+      </c>
+      <c r="J63" t="n">
+        <v>725</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2834,24 +2617,23 @@
         <v>-4264.8717</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>725</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>727</v>
+      </c>
+      <c r="J64" t="n">
+        <v>725</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2876,24 +2658,23 @@
         <v>-5184.8795</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>725</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>729</v>
+      </c>
+      <c r="J65" t="n">
+        <v>725</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2918,24 +2699,23 @@
         <v>-3166.239</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>725</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>726</v>
+      </c>
+      <c r="J66" t="n">
+        <v>725</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2960,24 +2740,23 @@
         <v>-3232.4502</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>725</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>734</v>
+      </c>
+      <c r="J67" t="n">
+        <v>725</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3002,24 +2781,23 @@
         <v>-3153.6838</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>725</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>732</v>
+      </c>
+      <c r="J68" t="n">
+        <v>725</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3046,22 +2824,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>725</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>725</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3086,24 +2861,23 @@
         <v>-3358.883800000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>725</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>736</v>
+      </c>
+      <c r="J70" t="n">
+        <v>725</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3130,22 +2904,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>725</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>725</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3172,22 +2943,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>725</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>725</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3214,22 +2982,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>725</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>725</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3256,22 +3021,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>725</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>725</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3298,22 +3060,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>725</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>725</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3340,22 +3099,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>725</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>725</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3382,22 +3138,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>725</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>725</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3424,22 +3177,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>725</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>725</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3466,22 +3216,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>725</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>725</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3508,22 +3255,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>725</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>725</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3550,22 +3294,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>725</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>725</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3592,22 +3333,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>725</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>725</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3634,22 +3372,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>725</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>725</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3676,22 +3411,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>725</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>725</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3718,22 +3450,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>725</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>725</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3760,22 +3489,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>725</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>725</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3802,22 +3528,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>725</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>725</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3844,22 +3567,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>725</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>725</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3886,22 +3606,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>725</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>725</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3928,22 +3645,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>725</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>725</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3970,22 +3684,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>725</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>725</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4012,22 +3723,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>725</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>725</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4054,22 +3762,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>725</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>725</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4096,22 +3801,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>725</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>725</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4138,22 +3840,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>725</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>725</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4180,22 +3879,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>725</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>725</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4222,22 +3918,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>725</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>725</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4264,22 +3957,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>725</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>725</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4306,22 +3996,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>725</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>725</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4348,22 +4035,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>725</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>725</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4390,22 +4074,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>725</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>725</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4432,22 +4113,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>725</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>725</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4474,22 +4152,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>725</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>725</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4516,22 +4191,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>725</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>725</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4556,24 +4228,21 @@
         <v>-3795.3857</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>725</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>725</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.028103448275862</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4600,22 +4269,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>725</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4642,22 +4302,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>725</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4684,22 +4335,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>725</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4726,22 +4368,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>725</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4768,22 +4401,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>725</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4808,24 +4432,15 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>725</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4850,24 +4465,15 @@
         <v>-776.8208999999997</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>725</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4892,24 +4498,15 @@
         <v>-548.8468999999998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>725</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4936,22 +4533,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>725</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4978,22 +4566,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>725</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5020,22 +4599,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>725</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5062,22 +4632,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>725</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5104,22 +4665,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>725</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5146,22 +4698,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>725</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5188,22 +4731,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>725</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5228,24 +4762,15 @@
         <v>-3184.5757</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>725</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5272,22 +4797,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>725</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5314,22 +4830,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>725</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5356,22 +4863,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>725</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5396,24 +4894,15 @@
         <v>-2562.402</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>725</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5438,24 +4927,15 @@
         <v>-2192.0569</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>725</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5480,24 +4960,15 @@
         <v>-2192.0569</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>725</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5522,24 +4993,15 @@
         <v>1093.0942</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>725</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5564,24 +5026,15 @@
         <v>793.0942000000005</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>725</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5608,22 +5061,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>725</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5650,22 +5094,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>725</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5690,24 +5125,15 @@
         <v>3098.201</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>725</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5732,26 +5158,15 @@
         <v>4098.201000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>725</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1.06948275862069</v>
-      </c>
-      <c r="N133" t="n">
-        <v>1.023448275862069</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5776,18 +5191,15 @@
         <v>4056.291100000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5812,18 +5224,15 @@
         <v>3746.291100000001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5848,20 +5257,17 @@
         <v>3905.134800000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest WTC.xlsx
+++ b/BackTest/2019-10-27 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,10 +946,14 @@
         <v>-14997.6789</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>739</v>
+      </c>
+      <c r="J17" t="n">
+        <v>739</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -979,11 +983,19 @@
         <v>-15452.6789</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>731</v>
+      </c>
+      <c r="J18" t="n">
+        <v>739</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1024,19 @@
         <v>-15454.5489</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>728</v>
+      </c>
+      <c r="J19" t="n">
+        <v>739</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1065,19 @@
         <v>-15374.3489</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>726</v>
+      </c>
+      <c r="J20" t="n">
+        <v>739</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1106,19 @@
         <v>-15370.0582</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>730</v>
+      </c>
+      <c r="J21" t="n">
+        <v>739</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1147,19 @@
         <v>-15490.0582</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>736</v>
+      </c>
+      <c r="J22" t="n">
+        <v>739</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1188,19 @@
         <v>-15490.0582</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>733</v>
+      </c>
+      <c r="J23" t="n">
+        <v>739</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1229,19 @@
         <v>-15183.9582</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>733</v>
+      </c>
+      <c r="J24" t="n">
+        <v>739</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1270,19 @@
         <v>-15086.1197</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>735</v>
+      </c>
+      <c r="J25" t="n">
+        <v>739</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1311,19 @@
         <v>-14938.5197</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>736</v>
+      </c>
+      <c r="J26" t="n">
+        <v>739</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1352,19 @@
         <v>-14960.8852</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>737</v>
+      </c>
+      <c r="J27" t="n">
+        <v>739</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1396,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>739</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1435,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>739</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>739</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1510,19 @@
         <v>-16403.8781</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>734</v>
+      </c>
+      <c r="J31" t="n">
+        <v>739</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1551,19 @@
         <v>-14665.921</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>731</v>
+      </c>
+      <c r="J32" t="n">
+        <v>739</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1595,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>739</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1631,19 @@
         <v>-14777.0647</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>729</v>
+      </c>
+      <c r="J34" t="n">
+        <v>739</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1672,19 @@
         <v>-14980.0777</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>737</v>
+      </c>
+      <c r="J35" t="n">
+        <v>739</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1713,19 @@
         <v>-14981.6793</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>730</v>
+      </c>
+      <c r="J36" t="n">
+        <v>739</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1754,19 @@
         <v>-14977.6793</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>729</v>
+      </c>
+      <c r="J37" t="n">
+        <v>739</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1795,19 @@
         <v>-14977.6793</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>731</v>
+      </c>
+      <c r="J38" t="n">
+        <v>739</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1836,19 @@
         <v>-6297.4992</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>731</v>
+      </c>
+      <c r="J39" t="n">
+        <v>739</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1877,19 @@
         <v>-6298.4992</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>737</v>
+      </c>
+      <c r="J40" t="n">
+        <v>739</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1921,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>739</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1960,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>739</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1996,19 @@
         <v>-7227.9244</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>727</v>
+      </c>
+      <c r="J43" t="n">
+        <v>739</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2037,19 @@
         <v>-7227.9244</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>726</v>
+      </c>
+      <c r="J44" t="n">
+        <v>739</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2078,19 @@
         <v>-7227.9244</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>726</v>
+      </c>
+      <c r="J45" t="n">
+        <v>739</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2119,19 @@
         <v>-7745.29</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>726</v>
+      </c>
+      <c r="J46" t="n">
+        <v>739</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,15 +2160,19 @@
         <v>-7745.29</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>725</v>
       </c>
       <c r="J47" t="n">
-        <v>725</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>739</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,17 +2201,17 @@
         <v>-10084.3379</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>725</v>
       </c>
       <c r="J48" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2014,13 +2242,13 @@
         <v>-9990.665500000001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>724</v>
       </c>
       <c r="J49" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2055,13 +2283,13 @@
         <v>-10514.2477</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>730</v>
       </c>
       <c r="J50" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2096,13 +2324,13 @@
         <v>-10170.1778</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>726</v>
       </c>
       <c r="J51" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2137,13 +2365,13 @@
         <v>-8518.9251</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>729</v>
       </c>
       <c r="J52" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2178,13 +2406,13 @@
         <v>-2531.2717</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>735</v>
       </c>
       <c r="J53" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2219,13 +2447,11 @@
         <v>-3545.4151</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2264,7 +2490,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2299,13 +2525,13 @@
         <v>-3547.4151</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>730</v>
       </c>
       <c r="J56" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2340,11 +2566,13 @@
         <v>-3547.4151</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>729</v>
+      </c>
       <c r="J57" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2379,13 +2607,13 @@
         <v>-3547.4151</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>729</v>
       </c>
       <c r="J58" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2424,7 +2652,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2463,7 +2691,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2502,7 +2730,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2541,7 +2769,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2576,13 +2804,13 @@
         <v>-4268.0266</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>726</v>
       </c>
       <c r="J63" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2617,13 +2845,11 @@
         <v>-4264.8717</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>727</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2658,13 +2884,13 @@
         <v>-5184.8795</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>729</v>
       </c>
       <c r="J65" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2699,13 +2925,13 @@
         <v>-3166.239</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>726</v>
       </c>
       <c r="J66" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2740,13 +2966,11 @@
         <v>-3232.4502</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2781,13 +3005,11 @@
         <v>-3153.6838</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2826,7 +3048,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2861,13 +3083,11 @@
         <v>-3358.883800000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2906,7 +3126,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2945,7 +3165,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2984,7 +3204,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3023,7 +3243,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3062,7 +3282,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3101,7 +3321,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3140,7 +3360,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3179,7 +3399,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3218,7 +3438,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3257,7 +3477,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3296,7 +3516,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3335,7 +3555,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3374,7 +3594,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3413,7 +3633,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3452,7 +3672,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3491,7 +3711,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3530,7 +3750,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3569,7 +3789,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3608,7 +3828,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3647,7 +3867,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3686,7 +3906,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3725,7 +3945,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3764,7 +3984,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3803,7 +4023,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3842,7 +4062,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3881,7 +4101,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3920,7 +4140,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3959,7 +4179,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3998,7 +4218,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4037,7 +4257,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4076,7 +4296,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4115,7 +4335,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4154,7 +4374,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4193,7 +4413,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4228,19 +4448,19 @@
         <v>-3795.3857</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.028103448275862</v>
+        <v>1</v>
       </c>
       <c r="M105" t="inlineStr"/>
     </row>
@@ -4270,8 +4490,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>739</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4303,8 +4529,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>739</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4336,8 +4568,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>739</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4369,8 +4607,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>739</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4402,8 +4646,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>739</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +4682,17 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>739</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +4721,17 @@
         <v>-776.8208999999997</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>739</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4498,11 +4760,17 @@
         <v>-548.8468999999998</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>739</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4534,8 +4802,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>739</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4567,8 +4841,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>739</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4600,8 +4880,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>739</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4633,8 +4919,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>739</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4666,8 +4958,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>739</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4699,8 +4997,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>739</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4732,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>739</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4762,11 +5072,17 @@
         <v>-3184.5757</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>739</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4798,8 +5114,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>739</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4828,13 +5150,19 @@
         <v>-3184.5757</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>739</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>1.016650879566982</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
@@ -4861,7 +5189,7 @@
         <v>-2598.5655</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4894,7 +5222,7 @@
         <v>-2562.402</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4927,7 +5255,7 @@
         <v>-2192.0569</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4960,7 +5288,7 @@
         <v>-2192.0569</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4993,7 +5321,7 @@
         <v>1093.0942</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5026,7 +5354,7 @@
         <v>793.0942000000005</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5059,7 +5387,7 @@
         <v>1096.8742</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5092,7 +5420,7 @@
         <v>1096.8742</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5125,7 +5453,7 @@
         <v>3098.201</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5158,7 +5486,7 @@
         <v>4098.201000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5191,7 +5519,7 @@
         <v>4056.291100000001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5224,7 +5552,7 @@
         <v>3746.291100000001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5257,7 +5585,7 @@
         <v>3905.134800000001</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5268,6 +5596,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest WTC.xlsx
+++ b/BackTest/2019-10-27 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,14 +946,10 @@
         <v>-14997.6789</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>739</v>
-      </c>
-      <c r="J17" t="n">
-        <v>739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>-15452.6789</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>731</v>
-      </c>
-      <c r="J18" t="n">
-        <v>739</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1024,19 +1012,11 @@
         <v>-15454.5489</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>728</v>
-      </c>
-      <c r="J19" t="n">
-        <v>739</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1065,19 +1045,11 @@
         <v>-15374.3489</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>726</v>
-      </c>
-      <c r="J20" t="n">
-        <v>739</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1106,19 +1078,11 @@
         <v>-15370.0582</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>730</v>
-      </c>
-      <c r="J21" t="n">
-        <v>739</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1147,19 +1111,11 @@
         <v>-15490.0582</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>736</v>
-      </c>
-      <c r="J22" t="n">
-        <v>739</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1188,19 +1144,11 @@
         <v>-15490.0582</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>733</v>
-      </c>
-      <c r="J23" t="n">
-        <v>739</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1229,19 +1177,11 @@
         <v>-15183.9582</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>733</v>
-      </c>
-      <c r="J24" t="n">
-        <v>739</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1270,19 +1210,11 @@
         <v>-15086.1197</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>735</v>
-      </c>
-      <c r="J25" t="n">
-        <v>739</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1311,19 +1243,11 @@
         <v>-14938.5197</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>736</v>
-      </c>
-      <c r="J26" t="n">
-        <v>739</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1352,19 +1276,11 @@
         <v>-14960.8852</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>737</v>
-      </c>
-      <c r="J27" t="n">
-        <v>739</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1396,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>739</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1435,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>739</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>739</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1510,19 +1408,11 @@
         <v>-16403.8781</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>734</v>
-      </c>
-      <c r="J31" t="n">
-        <v>739</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1551,19 +1441,11 @@
         <v>-14665.921</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>731</v>
-      </c>
-      <c r="J32" t="n">
-        <v>739</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1595,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>739</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1631,19 +1507,11 @@
         <v>-14777.0647</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>729</v>
-      </c>
-      <c r="J34" t="n">
-        <v>739</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1672,19 +1540,11 @@
         <v>-14980.0777</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>737</v>
-      </c>
-      <c r="J35" t="n">
-        <v>739</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1713,19 +1573,11 @@
         <v>-14981.6793</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>730</v>
-      </c>
-      <c r="J36" t="n">
-        <v>739</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1754,19 +1606,11 @@
         <v>-14977.6793</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>729</v>
-      </c>
-      <c r="J37" t="n">
-        <v>739</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1795,19 +1639,11 @@
         <v>-14977.6793</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>731</v>
-      </c>
-      <c r="J38" t="n">
-        <v>739</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1836,19 +1672,11 @@
         <v>-6297.4992</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>731</v>
-      </c>
-      <c r="J39" t="n">
-        <v>739</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1877,19 +1705,11 @@
         <v>-6298.4992</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>737</v>
-      </c>
-      <c r="J40" t="n">
-        <v>739</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>739</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1960,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>739</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1996,19 +1804,11 @@
         <v>-7227.9244</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>727</v>
-      </c>
-      <c r="J43" t="n">
-        <v>739</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2037,19 +1837,11 @@
         <v>-7227.9244</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>726</v>
-      </c>
-      <c r="J44" t="n">
-        <v>739</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2078,19 +1870,11 @@
         <v>-7227.9244</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>726</v>
-      </c>
-      <c r="J45" t="n">
-        <v>739</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2125,13 +1909,9 @@
         <v>726</v>
       </c>
       <c r="J46" t="n">
-        <v>739</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2160,17 +1940,15 @@
         <v>-7745.29</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2207,11 +1985,11 @@
         <v>725</v>
       </c>
       <c r="J48" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2248,7 +2026,7 @@
         <v>724</v>
       </c>
       <c r="J49" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2289,7 +2067,7 @@
         <v>730</v>
       </c>
       <c r="J50" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2330,7 +2108,7 @@
         <v>726</v>
       </c>
       <c r="J51" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2371,7 +2149,7 @@
         <v>729</v>
       </c>
       <c r="J52" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2406,13 +2184,11 @@
         <v>-2531.2717</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2451,7 +2227,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2490,7 +2266,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2525,13 +2301,11 @@
         <v>-3547.4151</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2566,13 +2340,11 @@
         <v>-3547.4151</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2607,13 +2379,11 @@
         <v>-3547.4151</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2652,7 +2422,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2691,7 +2461,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2730,7 +2500,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2769,7 +2539,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2804,13 +2574,11 @@
         <v>-4268.0266</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>726</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2849,7 +2617,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2884,13 +2652,11 @@
         <v>-5184.8795</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2925,13 +2691,11 @@
         <v>-3166.239</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>726</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2970,7 +2734,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3009,7 +2773,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3048,7 +2812,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3087,7 +2851,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3126,7 +2890,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3165,7 +2929,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3204,7 +2968,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3243,7 +3007,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3282,7 +3046,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3321,7 +3085,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3360,7 +3124,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3399,7 +3163,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3438,7 +3202,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3477,7 +3241,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3516,7 +3280,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3555,7 +3319,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3594,7 +3358,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3633,7 +3397,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3672,7 +3436,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3711,7 +3475,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3750,7 +3514,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3789,7 +3553,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3828,7 +3592,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3867,7 +3631,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3906,7 +3670,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3945,7 +3709,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3984,7 +3748,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4023,7 +3787,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4058,19 +3822,19 @@
         <v>-2897.5038</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>1.030812672176309</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -4097,17 +3861,11 @@
         <v>-2919.477899999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>739</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4139,14 +3897,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>739</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4178,14 +3930,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>739</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4217,14 +3963,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>739</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4256,14 +3996,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>739</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4295,14 +4029,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>739</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4334,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>739</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4370,17 +4092,11 @@
         <v>-3110.4663</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>739</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4409,17 +4125,11 @@
         <v>-3064.5674</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>739</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4448,17 +4158,11 @@
         <v>-3795.3857</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>739</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4487,17 +4191,11 @@
         <v>-3181.4057</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>739</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4526,17 +4224,11 @@
         <v>-425.9708999999998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>739</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4565,17 +4257,11 @@
         <v>-319.8677999999998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>739</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4604,17 +4290,11 @@
         <v>-454.4876999999998</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>739</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4643,17 +4323,11 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>739</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4682,17 +4356,11 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>739</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4724,14 +4392,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>739</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4760,17 +4422,11 @@
         <v>-548.8468999999998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>739</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4799,17 +4455,11 @@
         <v>-630.2468999999998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>739</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4838,17 +4488,11 @@
         <v>-815.7568999999997</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>739</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4877,17 +4521,11 @@
         <v>-3318.9625</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>739</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4916,17 +4554,11 @@
         <v>-2790.5625</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>739</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4955,17 +4587,11 @@
         <v>-2498.4229</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>739</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4994,17 +4620,11 @@
         <v>-2498.4229</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>739</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5033,17 +4653,11 @@
         <v>-2450.0808</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>739</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5072,17 +4686,11 @@
         <v>-3184.5757</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>739</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5111,17 +4719,11 @@
         <v>-3184.5757</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>739</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5153,16 +4755,10 @@
         <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>739</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>1.016650879566982</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
@@ -5354,7 +4950,7 @@
         <v>793.0942000000005</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5387,7 +4983,7 @@
         <v>1096.8742</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5420,7 +5016,7 @@
         <v>1096.8742</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5453,7 +5049,7 @@
         <v>3098.201</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5486,7 +5082,7 @@
         <v>4098.201000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5519,7 +5115,7 @@
         <v>4056.291100000001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5552,7 +5148,7 @@
         <v>3746.291100000001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5596,6 +5192,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest WTC.xlsx
+++ b/BackTest/2019-10-27 BackTest WTC.xlsx
@@ -1639,10 +1639,14 @@
         <v>-14977.6793</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>731</v>
+      </c>
+      <c r="J38" t="n">
+        <v>731</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1672,11 +1676,19 @@
         <v>-6297.4992</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>731</v>
+      </c>
+      <c r="J39" t="n">
+        <v>731</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1720,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>731</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>731</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>731</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>731</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>731</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>731</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1909,9 +1957,13 @@
         <v>726</v>
       </c>
       <c r="J46" t="n">
-        <v>726</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>731</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,15 +1992,17 @@
         <v>-7745.29</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>725</v>
+      </c>
       <c r="J47" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -1985,11 +2039,11 @@
         <v>725</v>
       </c>
       <c r="J48" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2026,7 +2080,7 @@
         <v>724</v>
       </c>
       <c r="J49" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2067,7 +2121,7 @@
         <v>730</v>
       </c>
       <c r="J50" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2108,7 +2162,7 @@
         <v>726</v>
       </c>
       <c r="J51" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2149,7 +2203,7 @@
         <v>729</v>
       </c>
       <c r="J52" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2188,7 +2242,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2227,7 +2281,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2266,7 +2320,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2305,7 +2359,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2344,7 +2398,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2383,7 +2437,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2422,7 +2476,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2461,7 +2515,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2500,7 +2554,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2539,7 +2593,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2578,7 +2632,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2617,7 +2671,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2656,7 +2710,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2695,7 +2749,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2734,7 +2788,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2773,7 +2827,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2812,7 +2866,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2851,7 +2905,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2890,7 +2944,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2929,7 +2983,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2968,7 +3022,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3007,7 +3061,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3046,7 +3100,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3085,7 +3139,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3124,7 +3178,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3163,7 +3217,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3202,7 +3256,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3241,7 +3295,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3280,7 +3334,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3319,7 +3373,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3358,7 +3412,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3397,7 +3451,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3436,7 +3490,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3475,7 +3529,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3514,7 +3568,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3553,7 +3607,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3592,7 +3646,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3631,7 +3685,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3670,7 +3724,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3709,7 +3763,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3748,7 +3802,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3787,7 +3841,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3822,19 +3876,19 @@
         <v>-2897.5038</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.030812672176309</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -3861,11 +3915,17 @@
         <v>-2919.477899999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>731</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3897,8 +3957,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>731</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3930,8 +3996,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>731</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3963,8 +4035,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>731</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3996,8 +4074,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>731</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4029,8 +4113,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>731</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4152,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>731</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4092,11 +4188,17 @@
         <v>-3110.4663</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>731</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4125,11 +4227,17 @@
         <v>-3064.5674</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>731</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4158,11 +4266,17 @@
         <v>-3795.3857</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>731</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4191,11 +4305,17 @@
         <v>-3181.4057</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>731</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4224,11 +4344,17 @@
         <v>-425.9708999999998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>731</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4257,11 +4383,17 @@
         <v>-319.8677999999998</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>731</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4290,11 +4422,17 @@
         <v>-454.4876999999998</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>731</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4323,11 +4461,17 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>731</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4356,11 +4500,17 @@
         <v>-172.1776999999998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>731</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4392,8 +4542,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>731</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4422,11 +4578,17 @@
         <v>-548.8468999999998</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>731</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4455,11 +4617,17 @@
         <v>-630.2468999999998</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>731</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4488,11 +4656,17 @@
         <v>-815.7568999999997</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>731</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4521,11 +4695,17 @@
         <v>-3318.9625</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>731</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4554,11 +4734,17 @@
         <v>-2790.5625</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>731</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4587,11 +4773,17 @@
         <v>-2498.4229</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>731</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4620,11 +4812,17 @@
         <v>-2498.4229</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>731</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4653,11 +4851,17 @@
         <v>-2450.0808</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>731</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4686,11 +4890,17 @@
         <v>-3184.5757</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>731</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4719,11 +4929,17 @@
         <v>-3184.5757</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>731</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4752,11 +4968,17 @@
         <v>-3184.5757</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>731</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4785,11 +5007,17 @@
         <v>-2598.5655</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>731</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4818,11 +5046,17 @@
         <v>-2562.402</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>731</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4851,11 +5085,17 @@
         <v>-2192.0569</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>731</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4884,11 +5124,17 @@
         <v>-2192.0569</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>731</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4917,11 +5163,17 @@
         <v>1093.0942</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>731</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4953,8 +5205,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>731</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4986,8 +5244,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>731</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5019,8 +5283,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>731</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5049,15 +5319,23 @@
         <v>3098.201</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>731</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>1.059295485636115</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.022038567493113</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5082,7 +5360,7 @@
         <v>4098.201000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5115,7 +5393,7 @@
         <v>4056.291100000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5148,7 +5426,7 @@
         <v>3746.291100000001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5181,7 +5459,7 @@
         <v>3905.134800000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest WTC.xlsx
+++ b/BackTest/2019-10-27 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>45.7864</v>
       </c>
       <c r="G2" t="n">
-        <v>-17476.22009999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>422.732</v>
       </c>
       <c r="G3" t="n">
-        <v>-17053.4881</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>42.9554</v>
       </c>
       <c r="G4" t="n">
-        <v>-17010.5327</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,19 @@
         <v>13.4952</v>
       </c>
       <c r="G5" t="n">
-        <v>-17024.0279</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +579,19 @@
         <v>879.6776</v>
       </c>
       <c r="G6" t="n">
-        <v>-16144.3503</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +613,19 @@
         <v>244.7199</v>
       </c>
       <c r="G7" t="n">
-        <v>-16389.0702</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +647,19 @@
         <v>834.2131000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-17223.2833</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +681,19 @@
         <v>1086.9691</v>
       </c>
       <c r="G9" t="n">
-        <v>-16136.3142</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +715,19 @@
         <v>1146.643</v>
       </c>
       <c r="G10" t="n">
-        <v>-14989.6712</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +749,19 @@
         <v>1086.9691</v>
       </c>
       <c r="G11" t="n">
-        <v>-14989.6712</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +783,19 @@
         <v>46.3294</v>
       </c>
       <c r="G12" t="n">
-        <v>-15036.0006</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +817,19 @@
         <v>1040.3136</v>
       </c>
       <c r="G13" t="n">
-        <v>-16076.3142</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +851,19 @@
         <v>79.63249999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-15996.6817</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +885,19 @@
         <v>134.07</v>
       </c>
       <c r="G15" t="n">
-        <v>-15996.6817</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +919,19 @@
         <v>1000.0028</v>
       </c>
       <c r="G16" t="n">
-        <v>-14996.6789</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +953,19 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-14997.6789</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +987,19 @@
         <v>455</v>
       </c>
       <c r="G18" t="n">
-        <v>-15452.6789</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1021,19 @@
         <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>-15454.5489</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1055,19 @@
         <v>80.2</v>
       </c>
       <c r="G20" t="n">
-        <v>-15374.3489</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1089,19 @@
         <v>4.2907</v>
       </c>
       <c r="G21" t="n">
-        <v>-15370.0582</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1123,19 @@
         <v>120</v>
       </c>
       <c r="G22" t="n">
-        <v>-15490.0582</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1157,19 @@
         <v>90</v>
       </c>
       <c r="G23" t="n">
-        <v>-15490.0582</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1191,19 @@
         <v>306.1</v>
       </c>
       <c r="G24" t="n">
-        <v>-15183.9582</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1225,19 @@
         <v>97.8385</v>
       </c>
       <c r="G25" t="n">
-        <v>-15086.1197</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1259,19 @@
         <v>147.6</v>
       </c>
       <c r="G26" t="n">
-        <v>-14938.5197</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1293,19 @@
         <v>22.3655</v>
       </c>
       <c r="G27" t="n">
-        <v>-14960.8852</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1327,19 @@
         <v>669.6399</v>
       </c>
       <c r="G28" t="n">
-        <v>-14960.8852</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1361,19 @@
         <v>1692.0054</v>
       </c>
       <c r="G29" t="n">
-        <v>-13268.8798</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1395,19 @@
         <v>1397.846</v>
       </c>
       <c r="G30" t="n">
-        <v>-14666.7258</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1429,19 @@
         <v>1737.1523</v>
       </c>
       <c r="G31" t="n">
-        <v>-16403.8781</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1463,19 @@
         <v>1737.9571</v>
       </c>
       <c r="G32" t="n">
-        <v>-14665.921</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1497,19 @@
         <v>2111.665</v>
       </c>
       <c r="G33" t="n">
-        <v>-16777.586</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1531,19 @@
         <v>2000.5213</v>
       </c>
       <c r="G34" t="n">
-        <v>-14777.0647</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1565,19 @@
         <v>203.013</v>
       </c>
       <c r="G35" t="n">
-        <v>-14980.0777</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1599,19 @@
         <v>1.6016</v>
       </c>
       <c r="G36" t="n">
-        <v>-14981.6793</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1633,19 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>-14977.6793</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,22 +1667,19 @@
         <v>113.8479</v>
       </c>
       <c r="G38" t="n">
-        <v>-14977.6793</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>731</v>
-      </c>
-      <c r="J38" t="n">
-        <v>731</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1673,26 +1701,19 @@
         <v>8680.1801</v>
       </c>
       <c r="G39" t="n">
-        <v>-6297.4992</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>731</v>
-      </c>
-      <c r="J39" t="n">
-        <v>731</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1714,24 +1735,19 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>-6298.4992</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>731</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1753,24 +1769,19 @@
         <v>114.23</v>
       </c>
       <c r="G41" t="n">
-        <v>-6412.7292</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>731</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1792,24 +1803,19 @@
         <v>85.77</v>
       </c>
       <c r="G42" t="n">
-        <v>-6412.7292</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>731</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1831,24 +1837,19 @@
         <v>815.1952</v>
       </c>
       <c r="G43" t="n">
-        <v>-7227.9244</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>731</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1870,24 +1871,19 @@
         <v>2626.3294</v>
       </c>
       <c r="G44" t="n">
-        <v>-7227.9244</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>731</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1909,24 +1905,19 @@
         <v>996.1946</v>
       </c>
       <c r="G45" t="n">
-        <v>-7227.9244</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>731</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1948,26 +1939,19 @@
         <v>517.3656</v>
       </c>
       <c r="G46" t="n">
-        <v>-7745.29</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>726</v>
-      </c>
-      <c r="J46" t="n">
-        <v>731</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1989,26 +1973,19 @@
         <v>3799.3922</v>
       </c>
       <c r="G47" t="n">
-        <v>-7745.29</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>725</v>
-      </c>
-      <c r="J47" t="n">
-        <v>731</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2030,26 +2007,19 @@
         <v>2339.0479</v>
       </c>
       <c r="G48" t="n">
-        <v>-10084.3379</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>725</v>
-      </c>
-      <c r="J48" t="n">
-        <v>731</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2071,26 +2041,19 @@
         <v>93.6724</v>
       </c>
       <c r="G49" t="n">
-        <v>-9990.665500000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>724</v>
-      </c>
-      <c r="J49" t="n">
-        <v>731</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2112,26 +2075,19 @@
         <v>523.5821999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-10514.2477</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>730</v>
-      </c>
-      <c r="J50" t="n">
-        <v>731</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2153,26 +2109,19 @@
         <v>344.0699</v>
       </c>
       <c r="G51" t="n">
-        <v>-10170.1778</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>726</v>
-      </c>
-      <c r="J51" t="n">
-        <v>731</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2194,26 +2143,21 @@
         <v>1651.2527</v>
       </c>
       <c r="G52" t="n">
-        <v>-8518.9251</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
         <v>729</v>
       </c>
-      <c r="J52" t="n">
-        <v>731</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2235,24 +2179,19 @@
         <v>5987.6534</v>
       </c>
       <c r="G53" t="n">
-        <v>-2531.2717</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>731</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2274,24 +2213,19 @@
         <v>1014.1434</v>
       </c>
       <c r="G54" t="n">
-        <v>-3545.4151</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>731</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2313,24 +2247,19 @@
         <v>0.0001</v>
       </c>
       <c r="G55" t="n">
-        <v>-3545.4151</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>731</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,24 +2281,19 @@
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>-3547.4151</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>731</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2391,24 +2315,19 @@
         <v>22.8072</v>
       </c>
       <c r="G57" t="n">
-        <v>-3547.4151</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>731</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2430,24 +2349,19 @@
         <v>374.4279</v>
       </c>
       <c r="G58" t="n">
-        <v>-3547.4151</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>731</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2469,24 +2383,19 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>-3537.4151</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>731</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2508,24 +2417,19 @@
         <v>47.981</v>
       </c>
       <c r="G60" t="n">
-        <v>-3585.3961</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>731</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2547,24 +2451,19 @@
         <v>47.9809</v>
       </c>
       <c r="G61" t="n">
-        <v>-3537.4152</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>731</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2586,24 +2485,19 @@
         <v>773.1677</v>
       </c>
       <c r="G62" t="n">
-        <v>-4310.5829</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>731</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2625,24 +2519,19 @@
         <v>42.5563</v>
       </c>
       <c r="G63" t="n">
-        <v>-4268.0266</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>731</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2664,24 +2553,19 @@
         <v>3.1549</v>
       </c>
       <c r="G64" t="n">
-        <v>-4264.8717</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>731</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2703,24 +2587,19 @@
         <v>920.0078</v>
       </c>
       <c r="G65" t="n">
-        <v>-5184.8795</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>731</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2742,24 +2621,19 @@
         <v>2018.6405</v>
       </c>
       <c r="G66" t="n">
-        <v>-3166.239</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>731</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2781,24 +2655,19 @@
         <v>66.21120000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-3232.4502</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>731</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2820,24 +2689,19 @@
         <v>78.7664</v>
       </c>
       <c r="G68" t="n">
-        <v>-3153.6838</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>731</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2859,24 +2723,19 @@
         <v>280.6</v>
       </c>
       <c r="G69" t="n">
-        <v>-2873.0838</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>731</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2898,24 +2757,19 @@
         <v>485.8</v>
       </c>
       <c r="G70" t="n">
-        <v>-3358.883800000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>731</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2937,24 +2791,19 @@
         <v>486.1001</v>
       </c>
       <c r="G71" t="n">
-        <v>-2872.7837</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>731</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,24 +2825,19 @@
         <v>287.6708</v>
       </c>
       <c r="G72" t="n">
-        <v>-2872.7837</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>731</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3015,24 +2859,19 @@
         <v>1288.3833</v>
       </c>
       <c r="G73" t="n">
-        <v>-1584.4004</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>731</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3054,24 +2893,19 @@
         <v>1023.7431</v>
       </c>
       <c r="G74" t="n">
-        <v>-2608.143500000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>731</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3093,24 +2927,19 @@
         <v>22.252</v>
       </c>
       <c r="G75" t="n">
-        <v>-2630.395500000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>731</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3132,24 +2961,19 @@
         <v>1518.5845</v>
       </c>
       <c r="G76" t="n">
-        <v>-4148.98</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>731</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3171,24 +2995,19 @@
         <v>3655.8966</v>
       </c>
       <c r="G77" t="n">
-        <v>-7804.876600000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>731</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,24 +3029,19 @@
         <v>285.2199</v>
       </c>
       <c r="G78" t="n">
-        <v>-7519.6567</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>731</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3249,24 +3063,19 @@
         <v>55.77</v>
       </c>
       <c r="G79" t="n">
-        <v>-7463.8867</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>731</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3288,24 +3097,19 @@
         <v>2335</v>
       </c>
       <c r="G80" t="n">
-        <v>-5128.8867</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>731</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3327,24 +3131,19 @@
         <v>810</v>
       </c>
       <c r="G81" t="n">
-        <v>-4318.8867</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>731</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3366,24 +3165,19 @@
         <v>47.3116</v>
       </c>
       <c r="G82" t="n">
-        <v>-4366.1983</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>731</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3405,24 +3199,19 @@
         <v>23.8612</v>
       </c>
       <c r="G83" t="n">
-        <v>-4342.3371</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>731</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3444,24 +3233,19 @@
         <v>46.1272</v>
       </c>
       <c r="G84" t="n">
-        <v>-4388.4643</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>731</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3483,24 +3267,19 @@
         <v>516.5984</v>
       </c>
       <c r="G85" t="n">
-        <v>-3871.8659</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>731</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3522,24 +3301,19 @@
         <v>1095.842</v>
       </c>
       <c r="G86" t="n">
-        <v>-3871.8659</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>731</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3561,24 +3335,19 @@
         <v>800</v>
       </c>
       <c r="G87" t="n">
-        <v>-3071.8659</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>731</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3600,24 +3369,19 @@
         <v>22.8863</v>
       </c>
       <c r="G88" t="n">
-        <v>-3094.7522</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>731</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3639,24 +3403,19 @@
         <v>999.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>-3094.7522</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>731</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3678,24 +3437,19 @@
         <v>62.3699</v>
       </c>
       <c r="G90" t="n">
-        <v>-3032.3823</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>731</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3717,24 +3471,19 @@
         <v>1107.3482</v>
       </c>
       <c r="G91" t="n">
-        <v>-3032.3823</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>731</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3756,24 +3505,19 @@
         <v>522.15</v>
       </c>
       <c r="G92" t="n">
-        <v>-3554.5323</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>731</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3795,24 +3539,19 @@
         <v>426.6986</v>
       </c>
       <c r="G93" t="n">
-        <v>-3127.8337</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>731</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3834,24 +3573,19 @@
         <v>230.3299</v>
       </c>
       <c r="G94" t="n">
-        <v>-2897.5038</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>731</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3873,24 +3607,19 @@
         <v>380.947</v>
       </c>
       <c r="G95" t="n">
-        <v>-2897.5038</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>731</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3912,24 +3641,19 @@
         <v>21.9741</v>
       </c>
       <c r="G96" t="n">
-        <v>-2919.477899999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>731</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3951,24 +3675,19 @@
         <v>48.1514</v>
       </c>
       <c r="G97" t="n">
-        <v>-2967.6293</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>731</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3990,24 +3709,19 @@
         <v>70.1255</v>
       </c>
       <c r="G98" t="n">
-        <v>-2897.5038</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>731</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4029,24 +3743,19 @@
         <v>112.39</v>
       </c>
       <c r="G99" t="n">
-        <v>-2785.1138</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>731</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4068,24 +3777,19 @@
         <v>228</v>
       </c>
       <c r="G100" t="n">
-        <v>-3013.1138</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>731</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4107,24 +3811,19 @@
         <v>771.5125</v>
       </c>
       <c r="G101" t="n">
-        <v>-3784.6263</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>731</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4146,24 +3845,19 @@
         <v>674.16</v>
       </c>
       <c r="G102" t="n">
-        <v>-3110.4663</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>731</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4185,24 +3879,19 @@
         <v>800</v>
       </c>
       <c r="G103" t="n">
-        <v>-3110.4663</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>731</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4224,24 +3913,19 @@
         <v>45.8989</v>
       </c>
       <c r="G104" t="n">
-        <v>-3064.5674</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>731</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4263,24 +3947,19 @@
         <v>730.8183</v>
       </c>
       <c r="G105" t="n">
-        <v>-3795.3857</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>731</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4302,24 +3981,19 @@
         <v>613.98</v>
       </c>
       <c r="G106" t="n">
-        <v>-3181.4057</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>731</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4341,24 +4015,19 @@
         <v>2755.4348</v>
       </c>
       <c r="G107" t="n">
-        <v>-425.9708999999998</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>731</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4380,24 +4049,19 @@
         <v>106.1031</v>
       </c>
       <c r="G108" t="n">
-        <v>-319.8677999999998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>731</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4419,24 +4083,19 @@
         <v>134.6199</v>
       </c>
       <c r="G109" t="n">
-        <v>-454.4876999999998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>731</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4458,24 +4117,19 @@
         <v>282.31</v>
       </c>
       <c r="G110" t="n">
-        <v>-172.1776999999998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>731</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4497,24 +4151,19 @@
         <v>800</v>
       </c>
       <c r="G111" t="n">
-        <v>-172.1776999999998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>731</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4536,24 +4185,19 @@
         <v>604.6432</v>
       </c>
       <c r="G112" t="n">
-        <v>-776.8208999999997</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>731</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4575,24 +4219,19 @@
         <v>227.974</v>
       </c>
       <c r="G113" t="n">
-        <v>-548.8468999999998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>731</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4614,24 +4253,19 @@
         <v>81.40000000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-630.2468999999998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>731</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4653,24 +4287,19 @@
         <v>185.51</v>
       </c>
       <c r="G115" t="n">
-        <v>-815.7568999999997</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>731</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4692,24 +4321,19 @@
         <v>2503.2056</v>
       </c>
       <c r="G116" t="n">
-        <v>-3318.9625</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>731</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4731,24 +4355,19 @@
         <v>528.4</v>
       </c>
       <c r="G117" t="n">
-        <v>-2790.5625</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>731</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4770,24 +4389,19 @@
         <v>292.1396</v>
       </c>
       <c r="G118" t="n">
-        <v>-2498.4229</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>731</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4809,24 +4423,19 @@
         <v>1439.7277</v>
       </c>
       <c r="G119" t="n">
-        <v>-2498.4229</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>731</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4848,24 +4457,19 @@
         <v>48.3421</v>
       </c>
       <c r="G120" t="n">
-        <v>-2450.0808</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>731</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4887,24 +4491,19 @@
         <v>734.4949</v>
       </c>
       <c r="G121" t="n">
-        <v>-3184.5757</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>731</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4926,24 +4525,19 @@
         <v>125.0099</v>
       </c>
       <c r="G122" t="n">
-        <v>-3184.5757</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>731</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4965,24 +4559,19 @@
         <v>317.585</v>
       </c>
       <c r="G123" t="n">
-        <v>-3184.5757</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>731</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5004,24 +4593,19 @@
         <v>586.0102000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>-2598.5655</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>731</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5043,24 +4627,19 @@
         <v>36.1635</v>
       </c>
       <c r="G125" t="n">
-        <v>-2562.402</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>731</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5082,24 +4661,19 @@
         <v>370.3451</v>
       </c>
       <c r="G126" t="n">
-        <v>-2192.0569</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>731</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5121,24 +4695,19 @@
         <v>2658.537</v>
       </c>
       <c r="G127" t="n">
-        <v>-2192.0569</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>731</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5160,24 +4729,19 @@
         <v>3285.1511</v>
       </c>
       <c r="G128" t="n">
-        <v>1093.0942</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>731</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5199,24 +4763,19 @@
         <v>300</v>
       </c>
       <c r="G129" t="n">
-        <v>793.0942000000005</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>731</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5238,24 +4797,19 @@
         <v>303.78</v>
       </c>
       <c r="G130" t="n">
-        <v>1096.8742</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>731</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5277,24 +4831,19 @@
         <v>18.0378</v>
       </c>
       <c r="G131" t="n">
-        <v>1096.8742</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>731</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5316,26 +4865,19 @@
         <v>2001.3268</v>
       </c>
       <c r="G132" t="n">
-        <v>3098.201</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>731</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1.059295485636115</v>
-      </c>
-      <c r="M132" t="n">
-        <v>1.022038567493113</v>
-      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5357,18 +4899,17 @@
         <v>1000</v>
       </c>
       <c r="G133" t="n">
-        <v>4098.201000000001</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5390,18 +4931,15 @@
         <v>41.9099</v>
       </c>
       <c r="G134" t="n">
-        <v>4056.291100000001</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5423,18 +4961,15 @@
         <v>310</v>
       </c>
       <c r="G135" t="n">
-        <v>3746.291100000001</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5456,18 +4991,15 @@
         <v>158.8437</v>
       </c>
       <c r="G136" t="n">
-        <v>3905.134800000001</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
